--- a/Datasets/Zillow_Home_Index_by_City.xlsx
+++ b/Datasets/Zillow_Home_Index_by_City.xlsx
@@ -5,10 +5,10 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea8e7c1a7f050da2/Documents/School/Data Analytics Bootcamp/Project/Datasets/Zillow_Home_Index/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/ea8e7c1a7f050da2/Documents/GitHub/project-one/Datasets/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="13_ncr:40009_{8D3CAA44-7C5D-408F-9B14-4EC573D3B299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F6DDA210-A8F9-44B0-A476-B18CDFAF4D01}"/>
+  <xr:revisionPtr revIDLastSave="11" documentId="13_ncr:40009_{8D3CAA44-7C5D-408F-9B14-4EC573D3B299}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D20BEC6F-FE07-4C9D-A518-ABCF88C5C1D8}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -457,25 +457,25 @@
     <t>Fixe_Plus_Bedroom_Median_Typical_Home_Value</t>
   </si>
   <si>
-    <t xml:space="preserve"> Four_Bedroom_Median_Typical_Home_Value </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Three_Bedroom_Median_Typical_Home_Value </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Two_Bedroom_Median_Typical_Home_Value </t>
-  </si>
-  <si>
-    <t xml:space="preserve"> One_Bedroom_Median_Typical_Home_Value </t>
-  </si>
-  <si>
     <t>Single_Family_Median_Typical_Home_Value</t>
   </si>
   <si>
-    <t>Source</t>
+    <t>https://www.zillow.com/research/data/</t>
   </si>
   <si>
-    <t>https://www.zillow.com/research/data/</t>
+    <t>One_Bedroom_Median_Typical_Home_Value</t>
+  </si>
+  <si>
+    <t>Two_Bedroom_Median_Typical_Home_Value</t>
+  </si>
+  <si>
+    <t>Three_Bedroom_Median_Typical_Home_Value</t>
+  </si>
+  <si>
+    <t>Four_Bedroom_Median_Typical_Home_Value</t>
+  </si>
+  <si>
+    <t>Data_Source_Link</t>
   </si>
 </sst>
 </file>
@@ -1103,12 +1103,12 @@
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="City" dataDxfId="8"/>
     <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Observation_Date" dataDxfId="7"/>
     <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="Single_Family_Median_Typical_Home_Value" dataDxfId="6" dataCellStyle="Currency"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name=" One_Bedroom_Median_Typical_Home_Value " dataDxfId="5" dataCellStyle="Currency"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name=" Two_Bedroom_Median_Typical_Home_Value " dataDxfId="4" dataCellStyle="Currency"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name=" Three_Bedroom_Median_Typical_Home_Value " dataDxfId="3" dataCellStyle="Currency"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name=" Four_Bedroom_Median_Typical_Home_Value " dataDxfId="2" dataCellStyle="Currency"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="One_Bedroom_Median_Typical_Home_Value" dataDxfId="5" dataCellStyle="Currency"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Two_Bedroom_Median_Typical_Home_Value" dataDxfId="4" dataCellStyle="Currency"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Three_Bedroom_Median_Typical_Home_Value" dataDxfId="3" dataCellStyle="Currency"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Four_Bedroom_Median_Typical_Home_Value" dataDxfId="2" dataCellStyle="Currency"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Fixe_Plus_Bedroom_Median_Typical_Home_Value" dataDxfId="1" dataCellStyle="Currency"/>
-    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Source" dataDxfId="0" dataCellStyle="Currency"/>
+    <tableColumn id="12" xr3:uid="{00000000-0010-0000-0000-00000C000000}" name="Data_Source_Link" dataDxfId="0" dataCellStyle="Currency"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1416,7 +1416,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E2" sqref="E2"/>
+      <selection pane="bottomLeft" activeCell="L1" sqref="L1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1449,25 +1449,25 @@
         <v>118</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>147</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="I1" s="4" t="s">
         <v>149</v>
       </c>
-      <c r="G1" s="4" t="s">
-        <v>148</v>
-      </c>
-      <c r="H1" s="4" t="s">
-        <v>147</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>146</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>144</v>
       </c>
       <c r="L1" s="3" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.2">
@@ -1505,7 +1505,7 @@
         <v>659430.5</v>
       </c>
       <c r="L2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.2">
@@ -1543,7 +1543,7 @@
         <v>657157.5</v>
       </c>
       <c r="L3" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="4" spans="1:12" x14ac:dyDescent="0.2">
@@ -1581,7 +1581,7 @@
         <v>688458</v>
       </c>
       <c r="L4" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.2">
@@ -1619,7 +1619,7 @@
         <v>757356.5</v>
       </c>
       <c r="L5" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.2">
@@ -1657,7 +1657,7 @@
         <v>830589</v>
       </c>
       <c r="L6" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.2">
@@ -1695,7 +1695,7 @@
         <v>902753</v>
       </c>
       <c r="L7" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.2">
@@ -1733,7 +1733,7 @@
         <v>974056</v>
       </c>
       <c r="L8" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.2">
@@ -1771,7 +1771,7 @@
         <v>1045178</v>
       </c>
       <c r="L9" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.2">
@@ -1809,7 +1809,7 @@
         <v>1074956</v>
       </c>
       <c r="L10" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.2">
@@ -1847,7 +1847,7 @@
         <v>1075888.5</v>
       </c>
       <c r="L11" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.2">
@@ -1885,7 +1885,7 @@
         <v>1127861</v>
       </c>
       <c r="L12" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.2">
@@ -1923,7 +1923,7 @@
         <v>1035366.5</v>
       </c>
       <c r="L13" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.2">
@@ -1961,7 +1961,7 @@
         <v>1024005</v>
       </c>
       <c r="L14" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.2">
@@ -1999,7 +1999,7 @@
         <v>1189716</v>
       </c>
       <c r="L15" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.2">
@@ -2037,7 +2037,7 @@
         <v>1301142</v>
       </c>
       <c r="L16" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="17" spans="1:12" x14ac:dyDescent="0.2">
@@ -2075,7 +2075,7 @@
         <v>1357641</v>
       </c>
       <c r="L17" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:12" x14ac:dyDescent="0.2">
@@ -2113,7 +2113,7 @@
         <v>1430196</v>
       </c>
       <c r="L18" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="19" spans="1:12" x14ac:dyDescent="0.2">
@@ -2151,7 +2151,7 @@
         <v>1499041.5</v>
       </c>
       <c r="L19" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.2">
@@ -2189,7 +2189,7 @@
         <v>1604369.5</v>
       </c>
       <c r="L20" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="21" spans="1:12" x14ac:dyDescent="0.2">
@@ -2227,7 +2227,7 @@
         <v>1617306.5</v>
       </c>
       <c r="L21" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="22" spans="1:12" x14ac:dyDescent="0.2">
@@ -2265,7 +2265,7 @@
         <v>1676027</v>
       </c>
       <c r="L22" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="23" spans="1:12" x14ac:dyDescent="0.2">
@@ -2303,7 +2303,7 @@
         <v>1949031.5</v>
       </c>
       <c r="L23" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.2">
@@ -2341,7 +2341,7 @@
         <v>254071.5</v>
       </c>
       <c r="L24" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" spans="1:12" x14ac:dyDescent="0.2">
@@ -2379,7 +2379,7 @@
         <v>240993</v>
       </c>
       <c r="L25" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="26" spans="1:12" x14ac:dyDescent="0.2">
@@ -2417,7 +2417,7 @@
         <v>253283.5</v>
       </c>
       <c r="L26" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="27" spans="1:12" x14ac:dyDescent="0.2">
@@ -2455,7 +2455,7 @@
         <v>269463</v>
       </c>
       <c r="L27" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.2">
@@ -2493,7 +2493,7 @@
         <v>284924</v>
       </c>
       <c r="L28" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.2">
@@ -2531,7 +2531,7 @@
         <v>302999.5</v>
       </c>
       <c r="L29" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.2">
@@ -2569,7 +2569,7 @@
         <v>320590</v>
       </c>
       <c r="L30" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.2">
@@ -2607,7 +2607,7 @@
         <v>331889</v>
       </c>
       <c r="L31" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.2">
@@ -2645,7 +2645,7 @@
         <v>337310.5</v>
       </c>
       <c r="L32" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="33" spans="1:12" x14ac:dyDescent="0.2">
@@ -2683,7 +2683,7 @@
         <v>344695</v>
       </c>
       <c r="L33" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="34" spans="1:12" x14ac:dyDescent="0.2">
@@ -2721,7 +2721,7 @@
         <v>388040.5</v>
       </c>
       <c r="L34" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="35" spans="1:12" x14ac:dyDescent="0.2">
@@ -2759,7 +2759,7 @@
         <v>283861.5</v>
       </c>
       <c r="L35" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="36" spans="1:12" x14ac:dyDescent="0.2">
@@ -2797,7 +2797,7 @@
         <v>288350</v>
       </c>
       <c r="L36" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="37" spans="1:12" x14ac:dyDescent="0.2">
@@ -2835,7 +2835,7 @@
         <v>314851</v>
       </c>
       <c r="L37" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="38" spans="1:12" x14ac:dyDescent="0.2">
@@ -2873,7 +2873,7 @@
         <v>340986</v>
       </c>
       <c r="L38" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="39" spans="1:12" x14ac:dyDescent="0.2">
@@ -2911,7 +2911,7 @@
         <v>373324</v>
       </c>
       <c r="L39" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="40" spans="1:12" x14ac:dyDescent="0.2">
@@ -2949,7 +2949,7 @@
         <v>375306.5</v>
       </c>
       <c r="L40" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="41" spans="1:12" x14ac:dyDescent="0.2">
@@ -2987,7 +2987,7 @@
         <v>377769.5</v>
       </c>
       <c r="L41" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="42" spans="1:12" x14ac:dyDescent="0.2">
@@ -3025,7 +3025,7 @@
         <v>380409.5</v>
       </c>
       <c r="L42" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="43" spans="1:12" x14ac:dyDescent="0.2">
@@ -3063,7 +3063,7 @@
         <v>387789.5</v>
       </c>
       <c r="L43" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="44" spans="1:12" x14ac:dyDescent="0.2">
@@ -3101,7 +3101,7 @@
         <v>392244</v>
       </c>
       <c r="L44" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="45" spans="1:12" x14ac:dyDescent="0.2">
@@ -3139,7 +3139,7 @@
         <v>441456.5</v>
       </c>
       <c r="L45" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:12" x14ac:dyDescent="0.2">
@@ -3177,7 +3177,7 @@
         <v>258880</v>
       </c>
       <c r="L46" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="47" spans="1:12" x14ac:dyDescent="0.2">
@@ -3215,7 +3215,7 @@
         <v>287248</v>
       </c>
       <c r="L47" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="48" spans="1:12" x14ac:dyDescent="0.2">
@@ -3253,7 +3253,7 @@
         <v>341960.5</v>
       </c>
       <c r="L48" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="49" spans="1:12" x14ac:dyDescent="0.2">
@@ -3291,7 +3291,7 @@
         <v>365453</v>
       </c>
       <c r="L49" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="50" spans="1:12" x14ac:dyDescent="0.2">
@@ -3329,7 +3329,7 @@
         <v>378258</v>
       </c>
       <c r="L50" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="51" spans="1:12" x14ac:dyDescent="0.2">
@@ -3367,7 +3367,7 @@
         <v>395020</v>
       </c>
       <c r="L51" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:12" x14ac:dyDescent="0.2">
@@ -3405,7 +3405,7 @@
         <v>408493</v>
       </c>
       <c r="L52" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:12" x14ac:dyDescent="0.2">
@@ -3443,7 +3443,7 @@
         <v>431028</v>
       </c>
       <c r="L53" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:12" x14ac:dyDescent="0.2">
@@ -3481,7 +3481,7 @@
         <v>448804.5</v>
       </c>
       <c r="L54" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:12" x14ac:dyDescent="0.2">
@@ -3519,7 +3519,7 @@
         <v>482358.5</v>
       </c>
       <c r="L55" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:12" x14ac:dyDescent="0.2">
@@ -3557,7 +3557,7 @@
         <v>622279</v>
       </c>
       <c r="L56" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="57" spans="1:12" x14ac:dyDescent="0.2">
@@ -3595,7 +3595,7 @@
         <v>240110</v>
       </c>
       <c r="L57" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="58" spans="1:12" x14ac:dyDescent="0.2">
@@ -3633,7 +3633,7 @@
         <v>231871.5</v>
       </c>
       <c r="L58" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="59" spans="1:12" x14ac:dyDescent="0.2">
@@ -3671,7 +3671,7 @@
         <v>235499.5</v>
       </c>
       <c r="L59" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="60" spans="1:12" x14ac:dyDescent="0.2">
@@ -3709,7 +3709,7 @@
         <v>246703.5</v>
       </c>
       <c r="L60" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="61" spans="1:12" x14ac:dyDescent="0.2">
@@ -3747,7 +3747,7 @@
         <v>262342</v>
       </c>
       <c r="L61" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="62" spans="1:12" x14ac:dyDescent="0.2">
@@ -3785,7 +3785,7 @@
         <v>267689.5</v>
       </c>
       <c r="L62" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:12" x14ac:dyDescent="0.2">
@@ -3823,7 +3823,7 @@
         <v>279673.5</v>
       </c>
       <c r="L63" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="64" spans="1:12" x14ac:dyDescent="0.2">
@@ -3861,7 +3861,7 @@
         <v>308322</v>
       </c>
       <c r="L64" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="65" spans="1:12" x14ac:dyDescent="0.2">
@@ -3899,7 +3899,7 @@
         <v>325396</v>
       </c>
       <c r="L65" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="66" spans="1:12" x14ac:dyDescent="0.2">
@@ -3937,7 +3937,7 @@
         <v>340567</v>
       </c>
       <c r="L66" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="67" spans="1:12" x14ac:dyDescent="0.2">
@@ -3975,7 +3975,7 @@
         <v>388004</v>
       </c>
       <c r="L67" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="68" spans="1:12" x14ac:dyDescent="0.2">
@@ -4013,7 +4013,7 @@
         <v>256438.5</v>
       </c>
       <c r="L68" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:12" x14ac:dyDescent="0.2">
@@ -4051,7 +4051,7 @@
         <v>261315.5</v>
       </c>
       <c r="L69" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="70" spans="1:12" x14ac:dyDescent="0.2">
@@ -4089,7 +4089,7 @@
         <v>269286.5</v>
       </c>
       <c r="L70" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="71" spans="1:12" x14ac:dyDescent="0.2">
@@ -4127,7 +4127,7 @@
         <v>284524.5</v>
       </c>
       <c r="L71" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="72" spans="1:12" x14ac:dyDescent="0.2">
@@ -4165,7 +4165,7 @@
         <v>295515</v>
       </c>
       <c r="L72" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="73" spans="1:12" x14ac:dyDescent="0.2">
@@ -4203,7 +4203,7 @@
         <v>308455</v>
       </c>
       <c r="L73" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="74" spans="1:12" x14ac:dyDescent="0.2">
@@ -4241,7 +4241,7 @@
         <v>315867.5</v>
       </c>
       <c r="L74" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="75" spans="1:12" x14ac:dyDescent="0.2">
@@ -4279,7 +4279,7 @@
         <v>324627</v>
       </c>
       <c r="L75" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="76" spans="1:12" x14ac:dyDescent="0.2">
@@ -4317,7 +4317,7 @@
         <v>332524</v>
       </c>
       <c r="L76" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="77" spans="1:12" x14ac:dyDescent="0.2">
@@ -4355,7 +4355,7 @@
         <v>337715</v>
       </c>
       <c r="L77" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="78" spans="1:12" x14ac:dyDescent="0.2">
@@ -4393,7 +4393,7 @@
         <v>390022</v>
       </c>
       <c r="L78" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:12" x14ac:dyDescent="0.2">
@@ -4431,7 +4431,7 @@
         <v>784528.5</v>
       </c>
       <c r="L79" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="80" spans="1:12" x14ac:dyDescent="0.2">
@@ -4469,7 +4469,7 @@
         <v>779663.5</v>
       </c>
       <c r="L80" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="81" spans="1:12" x14ac:dyDescent="0.2">
@@ -4507,7 +4507,7 @@
         <v>899666.5</v>
       </c>
       <c r="L81" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="82" spans="1:12" x14ac:dyDescent="0.2">
@@ -4545,7 +4545,7 @@
         <v>947489.5</v>
       </c>
       <c r="L82" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="83" spans="1:12" x14ac:dyDescent="0.2">
@@ -4583,7 +4583,7 @@
         <v>966788</v>
       </c>
       <c r="L83" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="84" spans="1:12" x14ac:dyDescent="0.2">
@@ -4621,7 +4621,7 @@
         <v>1011260</v>
       </c>
       <c r="L84" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="85" spans="1:12" x14ac:dyDescent="0.2">
@@ -4659,7 +4659,7 @@
         <v>1074555.5</v>
       </c>
       <c r="L85" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="86" spans="1:12" x14ac:dyDescent="0.2">
@@ -4697,7 +4697,7 @@
         <v>1145974</v>
       </c>
       <c r="L86" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="87" spans="1:12" x14ac:dyDescent="0.2">
@@ -4735,7 +4735,7 @@
         <v>1160969.5</v>
       </c>
       <c r="L87" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="88" spans="1:12" x14ac:dyDescent="0.2">
@@ -4773,7 +4773,7 @@
         <v>1221636.5</v>
       </c>
       <c r="L88" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="89" spans="1:12" x14ac:dyDescent="0.2">
@@ -4811,7 +4811,7 @@
         <v>1524823</v>
       </c>
       <c r="L89" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="90" spans="1:12" x14ac:dyDescent="0.2">
@@ -4849,7 +4849,7 @@
         <v>593003</v>
       </c>
       <c r="L90" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="91" spans="1:12" x14ac:dyDescent="0.2">
@@ -4887,7 +4887,7 @@
         <v>595072.5</v>
       </c>
       <c r="L91" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:12" x14ac:dyDescent="0.2">
@@ -4925,7 +4925,7 @@
         <v>636796.5</v>
       </c>
       <c r="L92" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="93" spans="1:12" x14ac:dyDescent="0.2">
@@ -4963,7 +4963,7 @@
         <v>680173</v>
       </c>
       <c r="L93" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="94" spans="1:12" x14ac:dyDescent="0.2">
@@ -5001,7 +5001,7 @@
         <v>739105</v>
       </c>
       <c r="L94" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="95" spans="1:12" x14ac:dyDescent="0.2">
@@ -5039,7 +5039,7 @@
         <v>782869</v>
       </c>
       <c r="L95" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="96" spans="1:12" x14ac:dyDescent="0.2">
@@ -5077,7 +5077,7 @@
         <v>814964.5</v>
       </c>
       <c r="L96" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="97" spans="1:12" x14ac:dyDescent="0.2">
@@ -5115,7 +5115,7 @@
         <v>849989.5</v>
       </c>
       <c r="L97" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:12" x14ac:dyDescent="0.2">
@@ -5153,7 +5153,7 @@
         <v>863445</v>
       </c>
       <c r="L98" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="99" spans="1:12" x14ac:dyDescent="0.2">
@@ -5191,7 +5191,7 @@
         <v>869495</v>
       </c>
       <c r="L99" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="100" spans="1:12" x14ac:dyDescent="0.2">
@@ -5229,7 +5229,7 @@
         <v>993572.5</v>
       </c>
       <c r="L100" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="101" spans="1:12" x14ac:dyDescent="0.2">
@@ -5267,7 +5267,7 @@
         <v>767867</v>
       </c>
       <c r="L101" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="102" spans="1:12" x14ac:dyDescent="0.2">
@@ -5305,7 +5305,7 @@
         <v>802815</v>
       </c>
       <c r="L102" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
@@ -5343,7 +5343,7 @@
         <v>944364</v>
       </c>
       <c r="L103" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
@@ -5381,7 +5381,7 @@
         <v>1021859</v>
       </c>
       <c r="L104" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="105" spans="1:12" x14ac:dyDescent="0.2">
@@ -5419,7 +5419,7 @@
         <v>1141121</v>
       </c>
       <c r="L105" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="106" spans="1:12" x14ac:dyDescent="0.2">
@@ -5457,7 +5457,7 @@
         <v>1214219</v>
       </c>
       <c r="L106" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:12" x14ac:dyDescent="0.2">
@@ -5495,7 +5495,7 @@
         <v>1283651</v>
       </c>
       <c r="L107" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:12" x14ac:dyDescent="0.2">
@@ -5533,7 +5533,7 @@
         <v>1534261</v>
       </c>
       <c r="L108" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="109" spans="1:12" x14ac:dyDescent="0.2">
@@ -5571,7 +5571,7 @@
         <v>1444830.5</v>
       </c>
       <c r="L109" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="110" spans="1:12" x14ac:dyDescent="0.2">
@@ -5609,7 +5609,7 @@
         <v>1505316</v>
       </c>
       <c r="L110" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="111" spans="1:12" x14ac:dyDescent="0.2">
@@ -5647,7 +5647,7 @@
         <v>1778559</v>
       </c>
       <c r="L111" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="112" spans="1:12" x14ac:dyDescent="0.2">
@@ -5685,7 +5685,7 @@
         <v>437702</v>
       </c>
       <c r="L112" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="113" spans="1:12" x14ac:dyDescent="0.2">
@@ -5723,7 +5723,7 @@
         <v>458066.5</v>
       </c>
       <c r="L113" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="114" spans="1:12" x14ac:dyDescent="0.2">
@@ -5761,7 +5761,7 @@
         <v>493202.5</v>
       </c>
       <c r="L114" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="115" spans="1:12" x14ac:dyDescent="0.2">
@@ -5799,7 +5799,7 @@
         <v>533268</v>
       </c>
       <c r="L115" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="116" spans="1:12" x14ac:dyDescent="0.2">
@@ -5837,7 +5837,7 @@
         <v>565887.5</v>
       </c>
       <c r="L116" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="117" spans="1:12" x14ac:dyDescent="0.2">
@@ -5875,7 +5875,7 @@
         <v>591912.5</v>
       </c>
       <c r="L117" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="118" spans="1:12" x14ac:dyDescent="0.2">
@@ -5913,7 +5913,7 @@
         <v>606420.5</v>
       </c>
       <c r="L118" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="119" spans="1:12" x14ac:dyDescent="0.2">
@@ -5951,7 +5951,7 @@
         <v>624443.5</v>
       </c>
       <c r="L119" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="120" spans="1:12" x14ac:dyDescent="0.2">
@@ -5989,7 +5989,7 @@
         <v>651665</v>
       </c>
       <c r="L120" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="121" spans="1:12" x14ac:dyDescent="0.2">
@@ -6027,7 +6027,7 @@
         <v>693039</v>
       </c>
       <c r="L121" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="122" spans="1:12" x14ac:dyDescent="0.2">
@@ -6065,7 +6065,7 @@
         <v>994011</v>
       </c>
       <c r="L122" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="123" spans="1:12" x14ac:dyDescent="0.2">
@@ -6103,7 +6103,7 @@
         <v>265635.5</v>
       </c>
       <c r="L123" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="124" spans="1:12" x14ac:dyDescent="0.2">
@@ -6141,7 +6141,7 @@
         <v>259414.5</v>
       </c>
       <c r="L124" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="125" spans="1:12" x14ac:dyDescent="0.2">
@@ -6179,7 +6179,7 @@
         <v>282407.5</v>
       </c>
       <c r="L125" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="126" spans="1:12" x14ac:dyDescent="0.2">
@@ -6217,7 +6217,7 @@
         <v>299352</v>
       </c>
       <c r="L126" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="127" spans="1:12" x14ac:dyDescent="0.2">
@@ -6255,7 +6255,7 @@
         <v>310239</v>
       </c>
       <c r="L127" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="128" spans="1:12" x14ac:dyDescent="0.2">
@@ -6293,7 +6293,7 @@
         <v>323194.5</v>
       </c>
       <c r="L128" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="129" spans="1:12" x14ac:dyDescent="0.2">
@@ -6331,7 +6331,7 @@
         <v>336650</v>
       </c>
       <c r="L129" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="130" spans="1:12" x14ac:dyDescent="0.2">
@@ -6369,7 +6369,7 @@
         <v>355100</v>
       </c>
       <c r="L130" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="131" spans="1:12" x14ac:dyDescent="0.2">
@@ -6407,7 +6407,7 @@
         <v>361662.5</v>
       </c>
       <c r="L131" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="132" spans="1:12" x14ac:dyDescent="0.2">
@@ -6445,7 +6445,7 @@
         <v>371654</v>
       </c>
       <c r="L132" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="133" spans="1:12" x14ac:dyDescent="0.2">
@@ -6483,7 +6483,7 @@
         <v>435503</v>
       </c>
       <c r="L133" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="134" spans="1:12" x14ac:dyDescent="0.2">
@@ -6521,7 +6521,7 @@
         <v>211913.5</v>
       </c>
       <c r="L134" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="135" spans="1:12" x14ac:dyDescent="0.2">
@@ -6559,7 +6559,7 @@
         <v>215400.5</v>
       </c>
       <c r="L135" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="136" spans="1:12" x14ac:dyDescent="0.2">
@@ -6597,7 +6597,7 @@
         <v>226140.5</v>
       </c>
       <c r="L136" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:12" x14ac:dyDescent="0.2">
@@ -6635,7 +6635,7 @@
         <v>242720.5</v>
       </c>
       <c r="L137" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="138" spans="1:12" x14ac:dyDescent="0.2">
@@ -6673,7 +6673,7 @@
         <v>259453</v>
       </c>
       <c r="L138" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:12" x14ac:dyDescent="0.2">
@@ -6711,7 +6711,7 @@
         <v>280394</v>
       </c>
       <c r="L139" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="140" spans="1:12" x14ac:dyDescent="0.2">
@@ -6749,7 +6749,7 @@
         <v>297904.5</v>
       </c>
       <c r="L140" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:12" x14ac:dyDescent="0.2">
@@ -6787,7 +6787,7 @@
         <v>313919</v>
       </c>
       <c r="L141" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="142" spans="1:12" x14ac:dyDescent="0.2">
@@ -6825,7 +6825,7 @@
         <v>319172.5</v>
       </c>
       <c r="L142" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="143" spans="1:12" x14ac:dyDescent="0.2">
@@ -6863,7 +6863,7 @@
         <v>328030</v>
       </c>
       <c r="L143" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="144" spans="1:12" x14ac:dyDescent="0.2">
@@ -6901,7 +6901,7 @@
         <v>387202.5</v>
       </c>
       <c r="L144" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:12" x14ac:dyDescent="0.2">
@@ -6939,7 +6939,7 @@
         <v>176057</v>
       </c>
       <c r="L145" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="146" spans="1:12" x14ac:dyDescent="0.2">
@@ -6977,7 +6977,7 @@
         <v>171082.5</v>
       </c>
       <c r="L146" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="147" spans="1:12" x14ac:dyDescent="0.2">
@@ -7015,7 +7015,7 @@
         <v>177723</v>
       </c>
       <c r="L147" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="148" spans="1:12" x14ac:dyDescent="0.2">
@@ -7053,7 +7053,7 @@
         <v>187913.5</v>
       </c>
       <c r="L148" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:12" x14ac:dyDescent="0.2">
@@ -7091,7 +7091,7 @@
         <v>201608.5</v>
       </c>
       <c r="L149" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="150" spans="1:12" x14ac:dyDescent="0.2">
@@ -7129,7 +7129,7 @@
         <v>216110</v>
       </c>
       <c r="L150" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="151" spans="1:12" x14ac:dyDescent="0.2">
@@ -7167,7 +7167,7 @@
         <v>239172</v>
       </c>
       <c r="L151" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="152" spans="1:12" x14ac:dyDescent="0.2">
@@ -7205,7 +7205,7 @@
         <v>262783</v>
       </c>
       <c r="L152" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="153" spans="1:12" x14ac:dyDescent="0.2">
@@ -7243,7 +7243,7 @@
         <v>281847</v>
       </c>
       <c r="L153" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="154" spans="1:12" x14ac:dyDescent="0.2">
@@ -7281,7 +7281,7 @@
         <v>297581</v>
       </c>
       <c r="L154" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="155" spans="1:12" x14ac:dyDescent="0.2">
@@ -7319,7 +7319,7 @@
         <v>345018</v>
       </c>
       <c r="L155" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="156" spans="1:12" x14ac:dyDescent="0.2">
@@ -7357,7 +7357,7 @@
         <v>229408.5</v>
       </c>
       <c r="L156" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="157" spans="1:12" x14ac:dyDescent="0.2">
@@ -7395,7 +7395,7 @@
         <v>235421</v>
       </c>
       <c r="L157" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="158" spans="1:12" x14ac:dyDescent="0.2">
@@ -7433,7 +7433,7 @@
         <v>244526</v>
       </c>
       <c r="L158" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="159" spans="1:12" x14ac:dyDescent="0.2">
@@ -7471,7 +7471,7 @@
         <v>268645.5</v>
       </c>
       <c r="L159" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="160" spans="1:12" x14ac:dyDescent="0.2">
@@ -7509,7 +7509,7 @@
         <v>267488.5</v>
       </c>
       <c r="L160" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="161" spans="1:12" x14ac:dyDescent="0.2">
@@ -7547,7 +7547,7 @@
         <v>274124</v>
       </c>
       <c r="L161" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="162" spans="1:12" x14ac:dyDescent="0.2">
@@ -7585,7 +7585,7 @@
         <v>292002</v>
       </c>
       <c r="L162" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="163" spans="1:12" x14ac:dyDescent="0.2">
@@ -7623,7 +7623,7 @@
         <v>308501.5</v>
       </c>
       <c r="L163" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="164" spans="1:12" x14ac:dyDescent="0.2">
@@ -7661,7 +7661,7 @@
         <v>321908.5</v>
       </c>
       <c r="L164" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="165" spans="1:12" x14ac:dyDescent="0.2">
@@ -7699,7 +7699,7 @@
         <v>335203.5</v>
       </c>
       <c r="L165" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="166" spans="1:12" x14ac:dyDescent="0.2">
@@ -7737,7 +7737,7 @@
         <v>384195</v>
       </c>
       <c r="L166" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="167" spans="1:12" x14ac:dyDescent="0.2">
@@ -7775,7 +7775,7 @@
         <v>349566.5</v>
       </c>
       <c r="L167" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="168" spans="1:12" x14ac:dyDescent="0.2">
@@ -7813,7 +7813,7 @@
         <v>351042.5</v>
       </c>
       <c r="L168" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="169" spans="1:12" x14ac:dyDescent="0.2">
@@ -7851,7 +7851,7 @@
         <v>372872.5</v>
       </c>
       <c r="L169" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="170" spans="1:12" x14ac:dyDescent="0.2">
@@ -7889,7 +7889,7 @@
         <v>393802</v>
       </c>
       <c r="L170" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="171" spans="1:12" x14ac:dyDescent="0.2">
@@ -7927,7 +7927,7 @@
         <v>405790</v>
       </c>
       <c r="L171" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="172" spans="1:12" x14ac:dyDescent="0.2">
@@ -7965,7 +7965,7 @@
         <v>425430.5</v>
       </c>
       <c r="L172" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="173" spans="1:12" x14ac:dyDescent="0.2">
@@ -8003,7 +8003,7 @@
         <v>444766</v>
       </c>
       <c r="L173" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="174" spans="1:12" x14ac:dyDescent="0.2">
@@ -8041,7 +8041,7 @@
         <v>465981.5</v>
       </c>
       <c r="L174" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="175" spans="1:12" x14ac:dyDescent="0.2">
@@ -8079,7 +8079,7 @@
         <v>478532</v>
       </c>
       <c r="L175" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="176" spans="1:12" x14ac:dyDescent="0.2">
@@ -8117,7 +8117,7 @@
         <v>502538</v>
       </c>
       <c r="L176" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="177" spans="1:12" x14ac:dyDescent="0.2">
@@ -8155,7 +8155,7 @@
         <v>592072.5</v>
       </c>
       <c r="L177" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="178" spans="1:12" x14ac:dyDescent="0.2">
@@ -8193,7 +8193,7 @@
         <v>1377356</v>
       </c>
       <c r="L178" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="179" spans="1:12" x14ac:dyDescent="0.2">
@@ -8231,7 +8231,7 @@
         <v>1460770</v>
       </c>
       <c r="L179" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="180" spans="1:12" x14ac:dyDescent="0.2">
@@ -8269,7 +8269,7 @@
         <v>1728004</v>
       </c>
       <c r="L180" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="181" spans="1:12" x14ac:dyDescent="0.2">
@@ -8307,7 +8307,7 @@
         <v>1945256</v>
       </c>
       <c r="L181" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="182" spans="1:12" x14ac:dyDescent="0.2">
@@ -8345,7 +8345,7 @@
         <v>2225917</v>
       </c>
       <c r="L182" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="183" spans="1:12" x14ac:dyDescent="0.2">
@@ -8383,7 +8383,7 @@
         <v>2300428</v>
       </c>
       <c r="L183" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="184" spans="1:12" x14ac:dyDescent="0.2">
@@ -8421,7 +8421,7 @@
         <v>2358511.5</v>
       </c>
       <c r="L184" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="185" spans="1:12" x14ac:dyDescent="0.2">
@@ -8459,7 +8459,7 @@
         <v>2580585.5</v>
       </c>
       <c r="L185" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="186" spans="1:12" x14ac:dyDescent="0.2">
@@ -8497,7 +8497,7 @@
         <v>2586607</v>
       </c>
       <c r="L186" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="187" spans="1:12" x14ac:dyDescent="0.2">
@@ -8535,7 +8535,7 @@
         <v>2618850</v>
       </c>
       <c r="L187" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="188" spans="1:12" x14ac:dyDescent="0.2">
@@ -8573,7 +8573,7 @@
         <v>2652445.5</v>
       </c>
       <c r="L188" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="189" spans="1:12" x14ac:dyDescent="0.2">
@@ -8611,7 +8611,7 @@
         <v>552129.5</v>
       </c>
       <c r="L189" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="190" spans="1:12" x14ac:dyDescent="0.2">
@@ -8649,7 +8649,7 @@
         <v>556643.5</v>
       </c>
       <c r="L190" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="191" spans="1:12" x14ac:dyDescent="0.2">
@@ -8687,7 +8687,7 @@
         <v>635488.5</v>
       </c>
       <c r="L191" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="192" spans="1:12" x14ac:dyDescent="0.2">
@@ -8725,7 +8725,7 @@
         <v>684945</v>
       </c>
       <c r="L192" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="193" spans="1:12" x14ac:dyDescent="0.2">
@@ -8763,7 +8763,7 @@
         <v>748826</v>
       </c>
       <c r="L193" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="194" spans="1:12" x14ac:dyDescent="0.2">
@@ -8801,7 +8801,7 @@
         <v>854720.5</v>
       </c>
       <c r="L194" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="195" spans="1:12" x14ac:dyDescent="0.2">
@@ -8839,7 +8839,7 @@
         <v>954717</v>
       </c>
       <c r="L195" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="196" spans="1:12" x14ac:dyDescent="0.2">
@@ -8877,7 +8877,7 @@
         <v>1063972.5</v>
       </c>
       <c r="L196" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="197" spans="1:12" x14ac:dyDescent="0.2">
@@ -8915,7 +8915,7 @@
         <v>1035312.5</v>
       </c>
       <c r="L197" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="198" spans="1:12" x14ac:dyDescent="0.2">
@@ -8953,7 +8953,7 @@
         <v>1083450.5</v>
       </c>
       <c r="L198" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="199" spans="1:12" x14ac:dyDescent="0.2">
@@ -8991,7 +8991,7 @@
         <v>1252099</v>
       </c>
       <c r="L199" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="200" spans="1:12" x14ac:dyDescent="0.2">
@@ -9029,7 +9029,7 @@
         <v>446704</v>
       </c>
       <c r="L200" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="201" spans="1:12" x14ac:dyDescent="0.2">
@@ -9067,7 +9067,7 @@
         <v>463029.5</v>
       </c>
       <c r="L201" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="202" spans="1:12" x14ac:dyDescent="0.2">
@@ -9105,7 +9105,7 @@
         <v>512735</v>
       </c>
       <c r="L202" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="203" spans="1:12" x14ac:dyDescent="0.2">
@@ -9143,7 +9143,7 @@
         <v>557703</v>
       </c>
       <c r="L203" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="204" spans="1:12" x14ac:dyDescent="0.2">
@@ -9181,7 +9181,7 @@
         <v>610894</v>
       </c>
       <c r="L204" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="205" spans="1:12" x14ac:dyDescent="0.2">
@@ -9219,7 +9219,7 @@
         <v>673460.5</v>
       </c>
       <c r="L205" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="206" spans="1:12" x14ac:dyDescent="0.2">
@@ -9257,7 +9257,7 @@
         <v>712037</v>
       </c>
       <c r="L206" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="207" spans="1:12" x14ac:dyDescent="0.2">
@@ -9295,7 +9295,7 @@
         <v>787426</v>
       </c>
       <c r="L207" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="208" spans="1:12" x14ac:dyDescent="0.2">
@@ -9333,7 +9333,7 @@
         <v>809883</v>
       </c>
       <c r="L208" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="209" spans="1:12" x14ac:dyDescent="0.2">
@@ -9371,7 +9371,7 @@
         <v>830369</v>
       </c>
       <c r="L209" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="210" spans="1:12" x14ac:dyDescent="0.2">
@@ -9409,7 +9409,7 @@
         <v>936511</v>
       </c>
       <c r="L210" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="211" spans="1:12" x14ac:dyDescent="0.2">
@@ -9447,7 +9447,7 @@
         <v>284071</v>
       </c>
       <c r="L211" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="212" spans="1:12" x14ac:dyDescent="0.2">
@@ -9485,7 +9485,7 @@
         <v>285412.5</v>
       </c>
       <c r="L212" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="213" spans="1:12" x14ac:dyDescent="0.2">
@@ -9523,7 +9523,7 @@
         <v>291223.5</v>
       </c>
       <c r="L213" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="214" spans="1:12" x14ac:dyDescent="0.2">
@@ -9561,7 +9561,7 @@
         <v>302682</v>
       </c>
       <c r="L214" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="215" spans="1:12" x14ac:dyDescent="0.2">
@@ -9599,7 +9599,7 @@
         <v>313084</v>
       </c>
       <c r="L215" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="216" spans="1:12" x14ac:dyDescent="0.2">
@@ -9637,7 +9637,7 @@
         <v>317867.5</v>
       </c>
       <c r="L216" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="217" spans="1:12" x14ac:dyDescent="0.2">
@@ -9675,7 +9675,7 @@
         <v>326377.5</v>
       </c>
       <c r="L217" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="218" spans="1:12" x14ac:dyDescent="0.2">
@@ -9713,7 +9713,7 @@
         <v>332511.5</v>
       </c>
       <c r="L218" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="219" spans="1:12" x14ac:dyDescent="0.2">
@@ -9751,7 +9751,7 @@
         <v>339024.5</v>
       </c>
       <c r="L219" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="220" spans="1:12" x14ac:dyDescent="0.2">
@@ -9789,7 +9789,7 @@
         <v>349954</v>
       </c>
       <c r="L220" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="221" spans="1:12" x14ac:dyDescent="0.2">
@@ -9827,7 +9827,7 @@
         <v>387977</v>
       </c>
       <c r="L221" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="222" spans="1:12" x14ac:dyDescent="0.2">
@@ -9865,7 +9865,7 @@
         <v>452824.5</v>
       </c>
       <c r="L222" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="223" spans="1:12" x14ac:dyDescent="0.2">
@@ -9903,7 +9903,7 @@
         <v>453712.5</v>
       </c>
       <c r="L223" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="224" spans="1:12" x14ac:dyDescent="0.2">
@@ -9941,7 +9941,7 @@
         <v>479907.5</v>
       </c>
       <c r="L224" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="225" spans="1:12" x14ac:dyDescent="0.2">
@@ -9979,7 +9979,7 @@
         <v>511432</v>
       </c>
       <c r="L225" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="226" spans="1:12" x14ac:dyDescent="0.2">
@@ -10017,7 +10017,7 @@
         <v>544369</v>
       </c>
       <c r="L226" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="227" spans="1:12" x14ac:dyDescent="0.2">
@@ -10055,7 +10055,7 @@
         <v>602488.5</v>
       </c>
       <c r="L227" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="228" spans="1:12" x14ac:dyDescent="0.2">
@@ -10093,7 +10093,7 @@
         <v>653922.5</v>
       </c>
       <c r="L228" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="229" spans="1:12" x14ac:dyDescent="0.2">
@@ -10131,7 +10131,7 @@
         <v>681710</v>
       </c>
       <c r="L229" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="230" spans="1:12" x14ac:dyDescent="0.2">
@@ -10169,7 +10169,7 @@
         <v>706895</v>
       </c>
       <c r="L230" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="231" spans="1:12" x14ac:dyDescent="0.2">
@@ -10207,7 +10207,7 @@
         <v>752023.5</v>
       </c>
       <c r="L231" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="232" spans="1:12" x14ac:dyDescent="0.2">
@@ -10245,7 +10245,7 @@
         <v>886156</v>
       </c>
       <c r="L232" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="233" spans="1:12" x14ac:dyDescent="0.2">
@@ -10283,7 +10283,7 @@
         <v>267509</v>
       </c>
       <c r="L233" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="234" spans="1:12" x14ac:dyDescent="0.2">
@@ -10321,7 +10321,7 @@
         <v>260788</v>
       </c>
       <c r="L234" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="235" spans="1:12" x14ac:dyDescent="0.2">
@@ -10359,7 +10359,7 @@
         <v>261462</v>
       </c>
       <c r="L235" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="236" spans="1:12" x14ac:dyDescent="0.2">
@@ -10397,7 +10397,7 @@
         <v>260843</v>
       </c>
       <c r="L236" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="237" spans="1:12" x14ac:dyDescent="0.2">
@@ -10435,7 +10435,7 @@
         <v>259789.5</v>
       </c>
       <c r="L237" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="238" spans="1:12" x14ac:dyDescent="0.2">
@@ -10473,7 +10473,7 @@
         <v>259482</v>
       </c>
       <c r="L238" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="239" spans="1:12" x14ac:dyDescent="0.2">
@@ -10511,7 +10511,7 @@
         <v>269731.5</v>
       </c>
       <c r="L239" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="240" spans="1:12" x14ac:dyDescent="0.2">
@@ -10549,7 +10549,7 @@
         <v>268896.5</v>
       </c>
       <c r="L240" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="241" spans="1:12" x14ac:dyDescent="0.2">
@@ -10587,7 +10587,7 @@
         <v>282878.5</v>
       </c>
       <c r="L241" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="242" spans="1:12" x14ac:dyDescent="0.2">
@@ -10625,7 +10625,7 @@
         <v>287215</v>
       </c>
       <c r="L242" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="243" spans="1:12" x14ac:dyDescent="0.2">
@@ -10663,7 +10663,7 @@
         <v>330222.5</v>
       </c>
       <c r="L243" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="244" spans="1:12" x14ac:dyDescent="0.2">
@@ -10701,7 +10701,7 @@
         <v>1052189.5</v>
       </c>
       <c r="L244" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="245" spans="1:12" x14ac:dyDescent="0.2">
@@ -10739,7 +10739,7 @@
         <v>1069500</v>
       </c>
       <c r="L245" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="246" spans="1:12" x14ac:dyDescent="0.2">
@@ -10777,7 +10777,7 @@
         <v>1182158.5</v>
       </c>
       <c r="L246" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="247" spans="1:12" x14ac:dyDescent="0.2">
@@ -10815,7 +10815,7 @@
         <v>1240266</v>
       </c>
       <c r="L247" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="248" spans="1:12" x14ac:dyDescent="0.2">
@@ -10853,7 +10853,7 @@
         <v>1267891.5</v>
       </c>
       <c r="L248" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="249" spans="1:12" x14ac:dyDescent="0.2">
@@ -10891,7 +10891,7 @@
         <v>1313673.5</v>
       </c>
       <c r="L249" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="250" spans="1:12" x14ac:dyDescent="0.2">
@@ -10929,7 +10929,7 @@
         <v>1374688.5</v>
       </c>
       <c r="L250" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="251" spans="1:12" x14ac:dyDescent="0.2">
@@ -10967,7 +10967,7 @@
         <v>1385527.5</v>
       </c>
       <c r="L251" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="252" spans="1:12" x14ac:dyDescent="0.2">
@@ -11005,7 +11005,7 @@
         <v>1448381.5</v>
       </c>
       <c r="L252" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="253" spans="1:12" x14ac:dyDescent="0.2">
@@ -11043,7 +11043,7 @@
         <v>1474740.5</v>
       </c>
       <c r="L253" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="254" spans="1:12" x14ac:dyDescent="0.2">
@@ -11081,7 +11081,7 @@
         <v>1584145</v>
       </c>
       <c r="L254" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="255" spans="1:12" x14ac:dyDescent="0.2">
@@ -11119,7 +11119,7 @@
         <v>431926.5</v>
       </c>
       <c r="L255" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="256" spans="1:12" x14ac:dyDescent="0.2">
@@ -11157,7 +11157,7 @@
         <v>441381.5</v>
       </c>
       <c r="L256" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="257" spans="1:12" x14ac:dyDescent="0.2">
@@ -11195,7 +11195,7 @@
         <v>489099.5</v>
       </c>
       <c r="L257" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="258" spans="1:12" x14ac:dyDescent="0.2">
@@ -11233,7 +11233,7 @@
         <v>548698.5</v>
       </c>
       <c r="L258" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="259" spans="1:12" x14ac:dyDescent="0.2">
@@ -11271,7 +11271,7 @@
         <v>588738.5</v>
       </c>
       <c r="L259" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="260" spans="1:12" x14ac:dyDescent="0.2">
@@ -11309,7 +11309,7 @@
         <v>648196.5</v>
       </c>
       <c r="L260" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="261" spans="1:12" x14ac:dyDescent="0.2">
@@ -11347,7 +11347,7 @@
         <v>701131</v>
       </c>
       <c r="L261" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="262" spans="1:12" x14ac:dyDescent="0.2">
@@ -11385,7 +11385,7 @@
         <v>763222</v>
       </c>
       <c r="L262" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="263" spans="1:12" x14ac:dyDescent="0.2">
@@ -11423,7 +11423,7 @@
         <v>785616.5</v>
       </c>
       <c r="L263" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="264" spans="1:12" x14ac:dyDescent="0.2">
@@ -11461,7 +11461,7 @@
         <v>802527</v>
       </c>
       <c r="L264" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="265" spans="1:12" x14ac:dyDescent="0.2">
@@ -11499,7 +11499,7 @@
         <v>875208</v>
       </c>
       <c r="L265" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="266" spans="1:12" x14ac:dyDescent="0.2">
@@ -11537,7 +11537,7 @@
         <v>247967.5</v>
       </c>
       <c r="L266" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="267" spans="1:12" x14ac:dyDescent="0.2">
@@ -11575,7 +11575,7 @@
         <v>243453.5</v>
       </c>
       <c r="L267" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="268" spans="1:12" x14ac:dyDescent="0.2">
@@ -11613,7 +11613,7 @@
         <v>295962</v>
       </c>
       <c r="L268" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="269" spans="1:12" x14ac:dyDescent="0.2">
@@ -11651,7 +11651,7 @@
         <v>337404.5</v>
       </c>
       <c r="L269" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="270" spans="1:12" x14ac:dyDescent="0.2">
@@ -11689,7 +11689,7 @@
         <v>352963</v>
       </c>
       <c r="L270" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="271" spans="1:12" x14ac:dyDescent="0.2">
@@ -11727,7 +11727,7 @@
         <v>367705.5</v>
       </c>
       <c r="L271" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="272" spans="1:12" x14ac:dyDescent="0.2">
@@ -11765,7 +11765,7 @@
         <v>384869.5</v>
       </c>
       <c r="L272" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="273" spans="1:12" x14ac:dyDescent="0.2">
@@ -11803,7 +11803,7 @@
         <v>429681.5</v>
       </c>
       <c r="L273" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="274" spans="1:12" x14ac:dyDescent="0.2">
@@ -11841,7 +11841,7 @@
         <v>448175.5</v>
       </c>
       <c r="L274" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="275" spans="1:12" x14ac:dyDescent="0.2">
@@ -11879,7 +11879,7 @@
         <v>458764</v>
       </c>
       <c r="L275" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="276" spans="1:12" x14ac:dyDescent="0.2">
@@ -11917,7 +11917,7 @@
         <v>547479.5</v>
       </c>
       <c r="L276" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="277" spans="1:12" x14ac:dyDescent="0.2">
@@ -11955,7 +11955,7 @@
         <v>426194</v>
       </c>
       <c r="L277" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="278" spans="1:12" x14ac:dyDescent="0.2">
@@ -11993,7 +11993,7 @@
         <v>436169.5</v>
       </c>
       <c r="L278" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="279" spans="1:12" x14ac:dyDescent="0.2">
@@ -12031,7 +12031,7 @@
         <v>483939</v>
       </c>
       <c r="L279" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="280" spans="1:12" x14ac:dyDescent="0.2">
@@ -12069,7 +12069,7 @@
         <v>519117.5</v>
       </c>
       <c r="L280" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="281" spans="1:12" x14ac:dyDescent="0.2">
@@ -12107,7 +12107,7 @@
         <v>565657</v>
       </c>
       <c r="L281" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="282" spans="1:12" x14ac:dyDescent="0.2">
@@ -12145,7 +12145,7 @@
         <v>635785.5</v>
       </c>
       <c r="L282" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="283" spans="1:12" x14ac:dyDescent="0.2">
@@ -12183,7 +12183,7 @@
         <v>672957.5</v>
       </c>
       <c r="L283" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="284" spans="1:12" x14ac:dyDescent="0.2">
@@ -12221,7 +12221,7 @@
         <v>685835</v>
       </c>
       <c r="L284" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="285" spans="1:12" x14ac:dyDescent="0.2">
@@ -12259,7 +12259,7 @@
         <v>687310</v>
       </c>
       <c r="L285" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="286" spans="1:12" x14ac:dyDescent="0.2">
@@ -12297,7 +12297,7 @@
         <v>699357.5</v>
       </c>
       <c r="L286" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="287" spans="1:12" x14ac:dyDescent="0.2">
@@ -12335,7 +12335,7 @@
         <v>802219.5</v>
       </c>
       <c r="L287" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="288" spans="1:12" x14ac:dyDescent="0.2">
@@ -12373,7 +12373,7 @@
         <v>30259</v>
       </c>
       <c r="L288" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="289" spans="1:12" x14ac:dyDescent="0.2">
@@ -12411,7 +12411,7 @@
         <v>33887</v>
       </c>
       <c r="L289" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="290" spans="1:12" x14ac:dyDescent="0.2">
@@ -12449,7 +12449,7 @@
         <v>33704</v>
       </c>
       <c r="L290" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="291" spans="1:12" x14ac:dyDescent="0.2">
@@ -12487,7 +12487,7 @@
         <v>39466.5</v>
       </c>
       <c r="L291" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="292" spans="1:12" x14ac:dyDescent="0.2">
@@ -12525,7 +12525,7 @@
         <v>43773.5</v>
       </c>
       <c r="L292" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="293" spans="1:12" x14ac:dyDescent="0.2">
@@ -12563,7 +12563,7 @@
         <v>55344</v>
       </c>
       <c r="L293" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="294" spans="1:12" x14ac:dyDescent="0.2">
@@ -12601,7 +12601,7 @@
         <v>67430.5</v>
       </c>
       <c r="L294" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="295" spans="1:12" x14ac:dyDescent="0.2">
@@ -12639,7 +12639,7 @@
         <v>81913</v>
       </c>
       <c r="L295" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="296" spans="1:12" x14ac:dyDescent="0.2">
@@ -12677,7 +12677,7 @@
         <v>93050.5</v>
       </c>
       <c r="L296" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="297" spans="1:12" x14ac:dyDescent="0.2">
@@ -12715,7 +12715,7 @@
         <v>99944.5</v>
       </c>
       <c r="L297" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="298" spans="1:12" x14ac:dyDescent="0.2">
@@ -12753,7 +12753,7 @@
         <v>130628.5</v>
       </c>
       <c r="L298" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="299" spans="1:12" x14ac:dyDescent="0.2">
@@ -12791,7 +12791,7 @@
         <v>334741</v>
       </c>
       <c r="L299" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="300" spans="1:12" x14ac:dyDescent="0.2">
@@ -12829,7 +12829,7 @@
         <v>329021</v>
       </c>
       <c r="L300" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="301" spans="1:12" x14ac:dyDescent="0.2">
@@ -12867,7 +12867,7 @@
         <v>338989.5</v>
       </c>
       <c r="L301" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="302" spans="1:12" x14ac:dyDescent="0.2">
@@ -12905,7 +12905,7 @@
         <v>353790</v>
       </c>
       <c r="L302" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="303" spans="1:12" x14ac:dyDescent="0.2">
@@ -12943,7 +12943,7 @@
         <v>362541</v>
       </c>
       <c r="L303" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="304" spans="1:12" x14ac:dyDescent="0.2">
@@ -12981,7 +12981,7 @@
         <v>372902.5</v>
       </c>
       <c r="L304" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="305" spans="1:12" x14ac:dyDescent="0.2">
@@ -13019,7 +13019,7 @@
         <v>386983.5</v>
       </c>
       <c r="L305" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="306" spans="1:12" x14ac:dyDescent="0.2">
@@ -13057,7 +13057,7 @@
         <v>399577</v>
       </c>
       <c r="L306" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="307" spans="1:12" x14ac:dyDescent="0.2">
@@ -13095,7 +13095,7 @@
         <v>402504</v>
       </c>
       <c r="L307" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="308" spans="1:12" x14ac:dyDescent="0.2">
@@ -13133,7 +13133,7 @@
         <v>415258.5</v>
       </c>
       <c r="L308" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="309" spans="1:12" x14ac:dyDescent="0.2">
@@ -13171,7 +13171,7 @@
         <v>465230</v>
       </c>
       <c r="L309" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="310" spans="1:12" x14ac:dyDescent="0.2">
@@ -13209,7 +13209,7 @@
         <v>211132</v>
       </c>
       <c r="L310" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="311" spans="1:12" x14ac:dyDescent="0.2">
@@ -13247,7 +13247,7 @@
         <v>210072.5</v>
       </c>
       <c r="L311" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="312" spans="1:12" x14ac:dyDescent="0.2">
@@ -13285,7 +13285,7 @@
         <v>209918</v>
       </c>
       <c r="L312" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="313" spans="1:12" x14ac:dyDescent="0.2">
@@ -13323,7 +13323,7 @@
         <v>220855.5</v>
       </c>
       <c r="L313" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="314" spans="1:12" x14ac:dyDescent="0.2">
@@ -13361,7 +13361,7 @@
         <v>224118</v>
       </c>
       <c r="L314" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="315" spans="1:12" x14ac:dyDescent="0.2">
@@ -13399,7 +13399,7 @@
         <v>235016.5</v>
       </c>
       <c r="L315" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="316" spans="1:12" x14ac:dyDescent="0.2">
@@ -13437,7 +13437,7 @@
         <v>247710</v>
       </c>
       <c r="L316" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="317" spans="1:12" x14ac:dyDescent="0.2">
@@ -13475,7 +13475,7 @@
         <v>263160</v>
       </c>
       <c r="L317" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="318" spans="1:12" x14ac:dyDescent="0.2">
@@ -13513,7 +13513,7 @@
         <v>279661</v>
       </c>
       <c r="L318" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="319" spans="1:12" x14ac:dyDescent="0.2">
@@ -13551,7 +13551,7 @@
         <v>299725.5</v>
       </c>
       <c r="L319" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="320" spans="1:12" x14ac:dyDescent="0.2">
@@ -13589,7 +13589,7 @@
         <v>345741</v>
       </c>
       <c r="L320" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="321" spans="1:12" x14ac:dyDescent="0.2">
@@ -13627,7 +13627,7 @@
         <v>230573</v>
       </c>
       <c r="L321" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="322" spans="1:12" x14ac:dyDescent="0.2">
@@ -13665,7 +13665,7 @@
         <v>226860.5</v>
       </c>
       <c r="L322" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="323" spans="1:12" x14ac:dyDescent="0.2">
@@ -13703,7 +13703,7 @@
         <v>238105.5</v>
       </c>
       <c r="L323" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="324" spans="1:12" x14ac:dyDescent="0.2">
@@ -13741,7 +13741,7 @@
         <v>248832</v>
       </c>
       <c r="L324" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="325" spans="1:12" x14ac:dyDescent="0.2">
@@ -13779,7 +13779,7 @@
         <v>245932</v>
       </c>
       <c r="L325" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="326" spans="1:12" x14ac:dyDescent="0.2">
@@ -13817,7 +13817,7 @@
         <v>253218.5</v>
       </c>
       <c r="L326" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="327" spans="1:12" x14ac:dyDescent="0.2">
@@ -13855,7 +13855,7 @@
         <v>252175</v>
       </c>
       <c r="L327" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="328" spans="1:12" x14ac:dyDescent="0.2">
@@ -13893,7 +13893,7 @@
         <v>266115</v>
       </c>
       <c r="L328" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="329" spans="1:12" x14ac:dyDescent="0.2">
@@ -13931,7 +13931,7 @@
         <v>279113</v>
       </c>
       <c r="L329" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="330" spans="1:12" x14ac:dyDescent="0.2">
@@ -13969,7 +13969,7 @@
         <v>279665.5</v>
       </c>
       <c r="L330" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="331" spans="1:12" x14ac:dyDescent="0.2">
@@ -14007,7 +14007,7 @@
         <v>319817</v>
       </c>
       <c r="L331" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="332" spans="1:12" x14ac:dyDescent="0.2">
@@ -14045,7 +14045,7 @@
         <v>91592.5</v>
       </c>
       <c r="L332" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="333" spans="1:12" x14ac:dyDescent="0.2">
@@ -14083,7 +14083,7 @@
         <v>82960.5</v>
       </c>
       <c r="L333" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="334" spans="1:12" x14ac:dyDescent="0.2">
@@ -14121,7 +14121,7 @@
         <v>82187.5</v>
       </c>
       <c r="L334" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="335" spans="1:12" x14ac:dyDescent="0.2">
@@ -14159,7 +14159,7 @@
         <v>87618</v>
       </c>
       <c r="L335" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="336" spans="1:12" x14ac:dyDescent="0.2">
@@ -14197,7 +14197,7 @@
         <v>89143.5</v>
       </c>
       <c r="L336" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="337" spans="1:12" x14ac:dyDescent="0.2">
@@ -14235,7 +14235,7 @@
         <v>93803.5</v>
       </c>
       <c r="L337" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="338" spans="1:12" x14ac:dyDescent="0.2">
@@ -14273,7 +14273,7 @@
         <v>98285.5</v>
       </c>
       <c r="L338" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="339" spans="1:12" x14ac:dyDescent="0.2">
@@ -14311,7 +14311,7 @@
         <v>109715.5</v>
       </c>
       <c r="L339" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="340" spans="1:12" x14ac:dyDescent="0.2">
@@ -14349,7 +14349,7 @@
         <v>117755.5</v>
       </c>
       <c r="L340" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="341" spans="1:12" x14ac:dyDescent="0.2">
@@ -14387,7 +14387,7 @@
         <v>124625</v>
       </c>
       <c r="L341" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="342" spans="1:12" x14ac:dyDescent="0.2">
@@ -14425,7 +14425,7 @@
         <v>147736.5</v>
       </c>
       <c r="L342" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="343" spans="1:12" x14ac:dyDescent="0.2">
@@ -14463,7 +14463,7 @@
         <v>313733</v>
       </c>
       <c r="L343" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="344" spans="1:12" x14ac:dyDescent="0.2">
@@ -14501,7 +14501,7 @@
         <v>311576</v>
       </c>
       <c r="L344" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="345" spans="1:12" x14ac:dyDescent="0.2">
@@ -14539,7 +14539,7 @@
         <v>317963.5</v>
       </c>
       <c r="L345" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="346" spans="1:12" x14ac:dyDescent="0.2">
@@ -14577,7 +14577,7 @@
         <v>327535.5</v>
       </c>
       <c r="L346" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="347" spans="1:12" x14ac:dyDescent="0.2">
@@ -14615,7 +14615,7 @@
         <v>324077</v>
       </c>
       <c r="L347" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="348" spans="1:12" x14ac:dyDescent="0.2">
@@ -14653,7 +14653,7 @@
         <v>332860</v>
       </c>
       <c r="L348" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="349" spans="1:12" x14ac:dyDescent="0.2">
@@ -14691,7 +14691,7 @@
         <v>337527</v>
       </c>
       <c r="L349" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="350" spans="1:12" x14ac:dyDescent="0.2">
@@ -14729,7 +14729,7 @@
         <v>342799.5</v>
       </c>
       <c r="L350" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="351" spans="1:12" x14ac:dyDescent="0.2">
@@ -14767,7 +14767,7 @@
         <v>353879.5</v>
       </c>
       <c r="L351" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="352" spans="1:12" x14ac:dyDescent="0.2">
@@ -14805,7 +14805,7 @@
         <v>379983</v>
       </c>
       <c r="L352" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="353" spans="1:12" x14ac:dyDescent="0.2">
@@ -14843,7 +14843,7 @@
         <v>439983.5</v>
       </c>
       <c r="L353" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="354" spans="1:12" x14ac:dyDescent="0.2">
@@ -14881,7 +14881,7 @@
         <v>267317</v>
       </c>
       <c r="L354" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="355" spans="1:12" x14ac:dyDescent="0.2">
@@ -14919,7 +14919,7 @@
         <v>273715.5</v>
       </c>
       <c r="L355" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="356" spans="1:12" x14ac:dyDescent="0.2">
@@ -14957,7 +14957,7 @@
         <v>305894.5</v>
       </c>
       <c r="L356" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="357" spans="1:12" x14ac:dyDescent="0.2">
@@ -14995,7 +14995,7 @@
         <v>336762.5</v>
       </c>
       <c r="L357" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="358" spans="1:12" x14ac:dyDescent="0.2">
@@ -15033,7 +15033,7 @@
         <v>339847.5</v>
       </c>
       <c r="L358" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="359" spans="1:12" x14ac:dyDescent="0.2">
@@ -15071,7 +15071,7 @@
         <v>354915</v>
       </c>
       <c r="L359" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="360" spans="1:12" x14ac:dyDescent="0.2">
@@ -15109,7 +15109,7 @@
         <v>374256</v>
       </c>
       <c r="L360" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="361" spans="1:12" x14ac:dyDescent="0.2">
@@ -15147,7 +15147,7 @@
         <v>403272.5</v>
       </c>
       <c r="L361" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="362" spans="1:12" x14ac:dyDescent="0.2">
@@ -15185,7 +15185,7 @@
         <v>411982</v>
       </c>
       <c r="L362" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="363" spans="1:12" x14ac:dyDescent="0.2">
@@ -15223,7 +15223,7 @@
         <v>426812</v>
       </c>
       <c r="L363" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="364" spans="1:12" x14ac:dyDescent="0.2">
@@ -15261,7 +15261,7 @@
         <v>508300.5</v>
       </c>
       <c r="L364" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="365" spans="1:12" x14ac:dyDescent="0.2">
@@ -15299,7 +15299,7 @@
         <v>296126.5</v>
       </c>
       <c r="L365" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="366" spans="1:12" x14ac:dyDescent="0.2">
@@ -15337,7 +15337,7 @@
         <v>292194.5</v>
       </c>
       <c r="L366" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="367" spans="1:12" x14ac:dyDescent="0.2">
@@ -15375,7 +15375,7 @@
         <v>313518.5</v>
       </c>
       <c r="L367" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="368" spans="1:12" x14ac:dyDescent="0.2">
@@ -15413,7 +15413,7 @@
         <v>329955.5</v>
       </c>
       <c r="L368" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="369" spans="1:12" x14ac:dyDescent="0.2">
@@ -15451,7 +15451,7 @@
         <v>327831.5</v>
       </c>
       <c r="L369" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="370" spans="1:12" x14ac:dyDescent="0.2">
@@ -15489,7 +15489,7 @@
         <v>335357.5</v>
       </c>
       <c r="L370" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="371" spans="1:12" x14ac:dyDescent="0.2">
@@ -15527,7 +15527,7 @@
         <v>349705.5</v>
       </c>
       <c r="L371" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="372" spans="1:12" x14ac:dyDescent="0.2">
@@ -15565,7 +15565,7 @@
         <v>370157.5</v>
       </c>
       <c r="L372" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="373" spans="1:12" x14ac:dyDescent="0.2">
@@ -15603,7 +15603,7 @@
         <v>387069</v>
       </c>
       <c r="L373" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="374" spans="1:12" x14ac:dyDescent="0.2">
@@ -15641,7 +15641,7 @@
         <v>412999</v>
       </c>
       <c r="L374" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="375" spans="1:12" x14ac:dyDescent="0.2">
@@ -15679,7 +15679,7 @@
         <v>492816.5</v>
       </c>
       <c r="L375" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="376" spans="1:12" x14ac:dyDescent="0.2">
@@ -15717,7 +15717,7 @@
         <v>271021.5</v>
       </c>
       <c r="L376" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="377" spans="1:12" x14ac:dyDescent="0.2">
@@ -15755,7 +15755,7 @@
         <v>269747</v>
       </c>
       <c r="L377" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="378" spans="1:12" x14ac:dyDescent="0.2">
@@ -15793,7 +15793,7 @@
         <v>338471.5</v>
       </c>
       <c r="L378" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="379" spans="1:12" x14ac:dyDescent="0.2">
@@ -15831,7 +15831,7 @@
         <v>386557</v>
       </c>
       <c r="L379" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="380" spans="1:12" x14ac:dyDescent="0.2">
@@ -15869,7 +15869,7 @@
         <v>400838</v>
       </c>
       <c r="L380" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="381" spans="1:12" x14ac:dyDescent="0.2">
@@ -15907,7 +15907,7 @@
         <v>428209.5</v>
       </c>
       <c r="L381" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="382" spans="1:12" x14ac:dyDescent="0.2">
@@ -15945,7 +15945,7 @@
         <v>460844</v>
       </c>
       <c r="L382" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="383" spans="1:12" x14ac:dyDescent="0.2">
@@ -15983,7 +15983,7 @@
         <v>483133</v>
       </c>
       <c r="L383" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="384" spans="1:12" x14ac:dyDescent="0.2">
@@ -16021,7 +16021,7 @@
         <v>493867.5</v>
       </c>
       <c r="L384" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="385" spans="1:12" x14ac:dyDescent="0.2">
@@ -16059,7 +16059,7 @@
         <v>518453</v>
       </c>
       <c r="L385" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="386" spans="1:12" x14ac:dyDescent="0.2">
@@ -16097,7 +16097,7 @@
         <v>633129</v>
       </c>
       <c r="L386" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="387" spans="1:12" x14ac:dyDescent="0.2">
@@ -16135,7 +16135,7 @@
         <v>254931</v>
       </c>
       <c r="L387" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="388" spans="1:12" x14ac:dyDescent="0.2">
@@ -16173,7 +16173,7 @@
         <v>279545</v>
       </c>
       <c r="L388" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="389" spans="1:12" x14ac:dyDescent="0.2">
@@ -16211,7 +16211,7 @@
         <v>331025</v>
       </c>
       <c r="L389" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="390" spans="1:12" x14ac:dyDescent="0.2">
@@ -16249,7 +16249,7 @@
         <v>350084.5</v>
       </c>
       <c r="L390" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="391" spans="1:12" x14ac:dyDescent="0.2">
@@ -16287,7 +16287,7 @@
         <v>362667</v>
       </c>
       <c r="L391" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="392" spans="1:12" x14ac:dyDescent="0.2">
@@ -16325,7 +16325,7 @@
         <v>377119.5</v>
       </c>
       <c r="L392" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="393" spans="1:12" x14ac:dyDescent="0.2">
@@ -16363,7 +16363,7 @@
         <v>390280.5</v>
       </c>
       <c r="L393" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="394" spans="1:12" x14ac:dyDescent="0.2">
@@ -16401,7 +16401,7 @@
         <v>415794.5</v>
       </c>
       <c r="L394" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="395" spans="1:12" x14ac:dyDescent="0.2">
@@ -16439,7 +16439,7 @@
         <v>435542.5</v>
       </c>
       <c r="L395" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="396" spans="1:12" x14ac:dyDescent="0.2">
@@ -16477,7 +16477,7 @@
         <v>469219</v>
       </c>
       <c r="L396" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="397" spans="1:12" x14ac:dyDescent="0.2">
@@ -16515,7 +16515,7 @@
         <v>605320</v>
       </c>
       <c r="L397" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="398" spans="1:12" x14ac:dyDescent="0.2">
@@ -16553,7 +16553,7 @@
         <v>199639.5</v>
       </c>
       <c r="L398" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="399" spans="1:12" x14ac:dyDescent="0.2">
@@ -16591,7 +16591,7 @@
         <v>197580.5</v>
       </c>
       <c r="L399" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="400" spans="1:12" x14ac:dyDescent="0.2">
@@ -16629,7 +16629,7 @@
         <v>207810</v>
       </c>
       <c r="L400" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="401" spans="1:12" x14ac:dyDescent="0.2">
@@ -16667,7 +16667,7 @@
         <v>223894.5</v>
       </c>
       <c r="L401" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="402" spans="1:12" x14ac:dyDescent="0.2">
@@ -16705,7 +16705,7 @@
         <v>234647</v>
       </c>
       <c r="L402" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="403" spans="1:12" x14ac:dyDescent="0.2">
@@ -16743,7 +16743,7 @@
         <v>247849.5</v>
       </c>
       <c r="L403" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="404" spans="1:12" x14ac:dyDescent="0.2">
@@ -16781,7 +16781,7 @@
         <v>275176</v>
       </c>
       <c r="L404" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="405" spans="1:12" x14ac:dyDescent="0.2">
@@ -16819,7 +16819,7 @@
         <v>298957.5</v>
       </c>
       <c r="L405" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="406" spans="1:12" x14ac:dyDescent="0.2">
@@ -16857,7 +16857,7 @@
         <v>308287</v>
       </c>
       <c r="L406" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="407" spans="1:12" x14ac:dyDescent="0.2">
@@ -16895,7 +16895,7 @@
         <v>324091</v>
       </c>
       <c r="L407" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="408" spans="1:12" x14ac:dyDescent="0.2">
@@ -16933,7 +16933,7 @@
         <v>376953</v>
       </c>
       <c r="L408" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="409" spans="1:12" x14ac:dyDescent="0.2">
@@ -16971,7 +16971,7 @@
         <v>502644</v>
       </c>
       <c r="L409" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="410" spans="1:12" x14ac:dyDescent="0.2">
@@ -17009,7 +17009,7 @@
         <v>517824.5</v>
       </c>
       <c r="L410" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="411" spans="1:12" x14ac:dyDescent="0.2">
@@ -17047,7 +17047,7 @@
         <v>559188.5</v>
       </c>
       <c r="L411" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="412" spans="1:12" x14ac:dyDescent="0.2">
@@ -17085,7 +17085,7 @@
         <v>621302</v>
       </c>
       <c r="L412" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="413" spans="1:12" x14ac:dyDescent="0.2">
@@ -17123,7 +17123,7 @@
         <v>664011</v>
       </c>
       <c r="L413" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="414" spans="1:12" x14ac:dyDescent="0.2">
@@ -17161,7 +17161,7 @@
         <v>697412.5</v>
       </c>
       <c r="L414" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="415" spans="1:12" x14ac:dyDescent="0.2">
@@ -17199,7 +17199,7 @@
         <v>725516</v>
       </c>
       <c r="L415" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="416" spans="1:12" x14ac:dyDescent="0.2">
@@ -17237,7 +17237,7 @@
         <v>785368.5</v>
       </c>
       <c r="L416" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="417" spans="1:12" x14ac:dyDescent="0.2">
@@ -17275,7 +17275,7 @@
         <v>817990.5</v>
       </c>
       <c r="L417" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="418" spans="1:12" x14ac:dyDescent="0.2">
@@ -17313,7 +17313,7 @@
         <v>834932</v>
       </c>
       <c r="L418" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="419" spans="1:12" x14ac:dyDescent="0.2">
@@ -17351,7 +17351,7 @@
         <v>940993.5</v>
       </c>
       <c r="L419" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="420" spans="1:12" x14ac:dyDescent="0.2">
@@ -17389,7 +17389,7 @@
         <v>279126</v>
       </c>
       <c r="L420" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="421" spans="1:12" x14ac:dyDescent="0.2">
@@ -17427,7 +17427,7 @@
         <v>279091</v>
       </c>
       <c r="L421" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="422" spans="1:12" x14ac:dyDescent="0.2">
@@ -17465,7 +17465,7 @@
         <v>289911</v>
       </c>
       <c r="L422" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="423" spans="1:12" x14ac:dyDescent="0.2">
@@ -17503,7 +17503,7 @@
         <v>304824.5</v>
       </c>
       <c r="L423" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="424" spans="1:12" x14ac:dyDescent="0.2">
@@ -17541,7 +17541,7 @@
         <v>313232.5</v>
       </c>
       <c r="L424" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="425" spans="1:12" x14ac:dyDescent="0.2">
@@ -17579,7 +17579,7 @@
         <v>324895.5</v>
       </c>
       <c r="L425" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="426" spans="1:12" x14ac:dyDescent="0.2">
@@ -17617,7 +17617,7 @@
         <v>342053.5</v>
       </c>
       <c r="L426" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="427" spans="1:12" x14ac:dyDescent="0.2">
@@ -17655,7 +17655,7 @@
         <v>352252</v>
       </c>
       <c r="L427" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="428" spans="1:12" x14ac:dyDescent="0.2">
@@ -17693,7 +17693,7 @@
         <v>352073</v>
       </c>
       <c r="L428" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="429" spans="1:12" x14ac:dyDescent="0.2">
@@ -17731,7 +17731,7 @@
         <v>377373.5</v>
       </c>
       <c r="L429" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="430" spans="1:12" x14ac:dyDescent="0.2">
@@ -17769,7 +17769,7 @@
         <v>428459</v>
       </c>
       <c r="L430" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="431" spans="1:12" x14ac:dyDescent="0.2">
@@ -17807,7 +17807,7 @@
         <v>313927.5</v>
       </c>
       <c r="L431" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="432" spans="1:12" x14ac:dyDescent="0.2">
@@ -17845,7 +17845,7 @@
         <v>316776.5</v>
       </c>
       <c r="L432" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="433" spans="1:12" x14ac:dyDescent="0.2">
@@ -17883,7 +17883,7 @@
         <v>330781.5</v>
       </c>
       <c r="L433" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="434" spans="1:12" x14ac:dyDescent="0.2">
@@ -17921,7 +17921,7 @@
         <v>338200.5</v>
       </c>
       <c r="L434" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="435" spans="1:12" x14ac:dyDescent="0.2">
@@ -17959,7 +17959,7 @@
         <v>346857.5</v>
       </c>
       <c r="L435" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="436" spans="1:12" x14ac:dyDescent="0.2">
@@ -17997,7 +17997,7 @@
         <v>366089</v>
       </c>
       <c r="L436" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="437" spans="1:12" x14ac:dyDescent="0.2">
@@ -18035,7 +18035,7 @@
         <v>392527.5</v>
       </c>
       <c r="L437" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="438" spans="1:12" x14ac:dyDescent="0.2">
@@ -18073,7 +18073,7 @@
         <v>421581</v>
       </c>
       <c r="L438" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="439" spans="1:12" x14ac:dyDescent="0.2">
@@ -18111,7 +18111,7 @@
         <v>438703.5</v>
       </c>
       <c r="L439" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="440" spans="1:12" x14ac:dyDescent="0.2">
@@ -18149,7 +18149,7 @@
         <v>472145</v>
       </c>
       <c r="L440" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="441" spans="1:12" x14ac:dyDescent="0.2">
@@ -18187,7 +18187,7 @@
         <v>569067</v>
       </c>
       <c r="L441" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="442" spans="1:12" x14ac:dyDescent="0.2">
@@ -18225,7 +18225,7 @@
         <v>453035.5</v>
       </c>
       <c r="L442" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="443" spans="1:12" x14ac:dyDescent="0.2">
@@ -18263,7 +18263,7 @@
         <v>446310.5</v>
       </c>
       <c r="L443" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="444" spans="1:12" x14ac:dyDescent="0.2">
@@ -18301,7 +18301,7 @@
         <v>469299</v>
       </c>
       <c r="L444" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="445" spans="1:12" x14ac:dyDescent="0.2">
@@ -18339,7 +18339,7 @@
         <v>487740.5</v>
       </c>
       <c r="L445" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="446" spans="1:12" x14ac:dyDescent="0.2">
@@ -18377,7 +18377,7 @@
         <v>501935.5</v>
       </c>
       <c r="L446" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="447" spans="1:12" x14ac:dyDescent="0.2">
@@ -18415,7 +18415,7 @@
         <v>513284</v>
       </c>
       <c r="L447" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="448" spans="1:12" x14ac:dyDescent="0.2">
@@ -18453,7 +18453,7 @@
         <v>528725</v>
       </c>
       <c r="L448" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="449" spans="1:12" x14ac:dyDescent="0.2">
@@ -18491,7 +18491,7 @@
         <v>543185.5</v>
       </c>
       <c r="L449" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="450" spans="1:12" x14ac:dyDescent="0.2">
@@ -18529,7 +18529,7 @@
         <v>558670</v>
       </c>
       <c r="L450" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="451" spans="1:12" x14ac:dyDescent="0.2">
@@ -18567,7 +18567,7 @@
         <v>577609.5</v>
       </c>
       <c r="L451" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="452" spans="1:12" x14ac:dyDescent="0.2">
@@ -18605,7 +18605,7 @@
         <v>672607</v>
       </c>
       <c r="L452" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="453" spans="1:12" x14ac:dyDescent="0.2">
@@ -18643,7 +18643,7 @@
         <v>457335</v>
       </c>
       <c r="L453" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="454" spans="1:12" x14ac:dyDescent="0.2">
@@ -18681,7 +18681,7 @@
         <v>454923.5</v>
       </c>
       <c r="L454" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="455" spans="1:12" x14ac:dyDescent="0.2">
@@ -18719,7 +18719,7 @@
         <v>470267</v>
       </c>
       <c r="L455" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="456" spans="1:12" x14ac:dyDescent="0.2">
@@ -18757,7 +18757,7 @@
         <v>480226.5</v>
       </c>
       <c r="L456" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="457" spans="1:12" x14ac:dyDescent="0.2">
@@ -18795,7 +18795,7 @@
         <v>487273</v>
       </c>
       <c r="L457" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="458" spans="1:12" x14ac:dyDescent="0.2">
@@ -18833,7 +18833,7 @@
         <v>488646</v>
       </c>
       <c r="L458" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="459" spans="1:12" x14ac:dyDescent="0.2">
@@ -18871,7 +18871,7 @@
         <v>497765</v>
       </c>
       <c r="L459" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="460" spans="1:12" x14ac:dyDescent="0.2">
@@ -18909,7 +18909,7 @@
         <v>505565</v>
       </c>
       <c r="L460" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="461" spans="1:12" x14ac:dyDescent="0.2">
@@ -18947,7 +18947,7 @@
         <v>512638</v>
       </c>
       <c r="L461" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="462" spans="1:12" x14ac:dyDescent="0.2">
@@ -18985,7 +18985,7 @@
         <v>533732</v>
       </c>
       <c r="L462" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="463" spans="1:12" x14ac:dyDescent="0.2">
@@ -19023,7 +19023,7 @@
         <v>602742.5</v>
       </c>
       <c r="L463" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="464" spans="1:12" x14ac:dyDescent="0.2">
@@ -19061,7 +19061,7 @@
         <v>627621.5</v>
       </c>
       <c r="L464" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="465" spans="1:12" x14ac:dyDescent="0.2">
@@ -19099,7 +19099,7 @@
         <v>613750</v>
       </c>
       <c r="L465" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="466" spans="1:12" x14ac:dyDescent="0.2">
@@ -19137,7 +19137,7 @@
         <v>702420</v>
       </c>
       <c r="L466" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="467" spans="1:12" x14ac:dyDescent="0.2">
@@ -19175,7 +19175,7 @@
         <v>746326</v>
       </c>
       <c r="L467" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="468" spans="1:12" x14ac:dyDescent="0.2">
@@ -19213,7 +19213,7 @@
         <v>781549</v>
       </c>
       <c r="L468" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="469" spans="1:12" x14ac:dyDescent="0.2">
@@ -19251,7 +19251,7 @@
         <v>821154</v>
       </c>
       <c r="L469" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="470" spans="1:12" x14ac:dyDescent="0.2">
@@ -19289,7 +19289,7 @@
         <v>860218.5</v>
       </c>
       <c r="L470" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="471" spans="1:12" x14ac:dyDescent="0.2">
@@ -19327,7 +19327,7 @@
         <v>913535</v>
       </c>
       <c r="L471" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="472" spans="1:12" x14ac:dyDescent="0.2">
@@ -19365,7 +19365,7 @@
         <v>932792</v>
       </c>
       <c r="L472" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="473" spans="1:12" x14ac:dyDescent="0.2">
@@ -19403,7 +19403,7 @@
         <v>979583</v>
       </c>
       <c r="L473" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="474" spans="1:12" x14ac:dyDescent="0.2">
@@ -19441,7 +19441,7 @@
         <v>1133235.5</v>
       </c>
       <c r="L474" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="475" spans="1:12" x14ac:dyDescent="0.2">
@@ -19479,7 +19479,7 @@
         <v>491982</v>
       </c>
       <c r="L475" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="476" spans="1:12" x14ac:dyDescent="0.2">
@@ -19517,7 +19517,7 @@
         <v>494852</v>
       </c>
       <c r="L476" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="477" spans="1:12" x14ac:dyDescent="0.2">
@@ -19555,7 +19555,7 @@
         <v>564774</v>
       </c>
       <c r="L477" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="478" spans="1:12" x14ac:dyDescent="0.2">
@@ -19593,7 +19593,7 @@
         <v>637106</v>
       </c>
       <c r="L478" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="479" spans="1:12" x14ac:dyDescent="0.2">
@@ -19631,7 +19631,7 @@
         <v>695856.5</v>
       </c>
       <c r="L479" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="480" spans="1:12" x14ac:dyDescent="0.2">
@@ -19669,7 +19669,7 @@
         <v>752181.5</v>
       </c>
       <c r="L480" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="481" spans="1:12" x14ac:dyDescent="0.2">
@@ -19707,7 +19707,7 @@
         <v>799911</v>
       </c>
       <c r="L481" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="482" spans="1:12" x14ac:dyDescent="0.2">
@@ -19745,7 +19745,7 @@
         <v>838782.5</v>
       </c>
       <c r="L482" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="483" spans="1:12" x14ac:dyDescent="0.2">
@@ -19783,7 +19783,7 @@
         <v>853614</v>
       </c>
       <c r="L483" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="484" spans="1:12" x14ac:dyDescent="0.2">
@@ -19821,7 +19821,7 @@
         <v>852419</v>
       </c>
       <c r="L484" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="485" spans="1:12" x14ac:dyDescent="0.2">
@@ -19859,7 +19859,7 @@
         <v>971243.5</v>
       </c>
       <c r="L485" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="486" spans="1:12" x14ac:dyDescent="0.2">
@@ -19897,7 +19897,7 @@
         <v>672305</v>
       </c>
       <c r="L486" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="487" spans="1:12" x14ac:dyDescent="0.2">
@@ -19935,7 +19935,7 @@
         <v>668439</v>
       </c>
       <c r="L487" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="488" spans="1:12" x14ac:dyDescent="0.2">
@@ -19973,7 +19973,7 @@
         <v>831127</v>
       </c>
       <c r="L488" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="489" spans="1:12" x14ac:dyDescent="0.2">
@@ -20011,7 +20011,7 @@
         <v>917651</v>
       </c>
       <c r="L489" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="490" spans="1:12" x14ac:dyDescent="0.2">
@@ -20049,7 +20049,7 @@
         <v>1004150</v>
       </c>
       <c r="L490" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="491" spans="1:12" x14ac:dyDescent="0.2">
@@ -20087,7 +20087,7 @@
         <v>1121194</v>
       </c>
       <c r="L491" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="492" spans="1:12" x14ac:dyDescent="0.2">
@@ -20125,7 +20125,7 @@
         <v>1196864</v>
       </c>
       <c r="L492" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="493" spans="1:12" x14ac:dyDescent="0.2">
@@ -20163,7 +20163,7 @@
         <v>1327759.5</v>
       </c>
       <c r="L493" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="494" spans="1:12" x14ac:dyDescent="0.2">
@@ -20201,7 +20201,7 @@
         <v>1337651.5</v>
       </c>
       <c r="L494" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="495" spans="1:12" x14ac:dyDescent="0.2">
@@ -20239,7 +20239,7 @@
         <v>1406466.5</v>
       </c>
       <c r="L495" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="496" spans="1:12" x14ac:dyDescent="0.2">
@@ -20277,7 +20277,7 @@
         <v>1674091</v>
       </c>
       <c r="L496" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="497" spans="1:12" x14ac:dyDescent="0.2">
@@ -20315,7 +20315,7 @@
         <v>279328.5</v>
       </c>
       <c r="L497" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="498" spans="1:12" x14ac:dyDescent="0.2">
@@ -20353,7 +20353,7 @@
         <v>269431</v>
       </c>
       <c r="L498" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="499" spans="1:12" x14ac:dyDescent="0.2">
@@ -20391,7 +20391,7 @@
         <v>302234</v>
       </c>
       <c r="L499" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="500" spans="1:12" x14ac:dyDescent="0.2">
@@ -20429,7 +20429,7 @@
         <v>323473</v>
       </c>
       <c r="L500" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="501" spans="1:12" x14ac:dyDescent="0.2">
@@ -20467,7 +20467,7 @@
         <v>339864.5</v>
       </c>
       <c r="L501" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="502" spans="1:12" x14ac:dyDescent="0.2">
@@ -20505,7 +20505,7 @@
         <v>355474.5</v>
       </c>
       <c r="L502" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="503" spans="1:12" x14ac:dyDescent="0.2">
@@ -20543,7 +20543,7 @@
         <v>379668</v>
       </c>
       <c r="L503" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="504" spans="1:12" x14ac:dyDescent="0.2">
@@ -20581,7 +20581,7 @@
         <v>408158.5</v>
       </c>
       <c r="L504" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="505" spans="1:12" x14ac:dyDescent="0.2">
@@ -20619,7 +20619,7 @@
         <v>418946</v>
       </c>
       <c r="L505" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="506" spans="1:12" x14ac:dyDescent="0.2">
@@ -20657,7 +20657,7 @@
         <v>435075</v>
       </c>
       <c r="L506" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="507" spans="1:12" x14ac:dyDescent="0.2">
@@ -20695,7 +20695,7 @@
         <v>474347</v>
       </c>
       <c r="L507" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="508" spans="1:12" x14ac:dyDescent="0.2">
@@ -20733,7 +20733,7 @@
         <v>375539.5</v>
       </c>
       <c r="L508" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="509" spans="1:12" x14ac:dyDescent="0.2">
@@ -20771,7 +20771,7 @@
         <v>380678</v>
       </c>
       <c r="L509" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="510" spans="1:12" x14ac:dyDescent="0.2">
@@ -20809,7 +20809,7 @@
         <v>392625.5</v>
       </c>
       <c r="L510" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="511" spans="1:12" x14ac:dyDescent="0.2">
@@ -20847,7 +20847,7 @@
         <v>398581</v>
       </c>
       <c r="L511" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="512" spans="1:12" x14ac:dyDescent="0.2">
@@ -20885,7 +20885,7 @@
         <v>407442.5</v>
       </c>
       <c r="L512" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="513" spans="1:12" x14ac:dyDescent="0.2">
@@ -20923,7 +20923,7 @@
         <v>402751</v>
       </c>
       <c r="L513" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="514" spans="1:12" x14ac:dyDescent="0.2">
@@ -20961,7 +20961,7 @@
         <v>407872.5</v>
       </c>
       <c r="L514" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="515" spans="1:12" x14ac:dyDescent="0.2">
@@ -20999,7 +20999,7 @@
         <v>412894</v>
       </c>
       <c r="L515" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="516" spans="1:12" x14ac:dyDescent="0.2">
@@ -21037,7 +21037,7 @@
         <v>414307.5</v>
       </c>
       <c r="L516" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="517" spans="1:12" x14ac:dyDescent="0.2">
@@ -21075,7 +21075,7 @@
         <v>424196</v>
       </c>
       <c r="L517" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="518" spans="1:12" x14ac:dyDescent="0.2">
@@ -21113,7 +21113,7 @@
         <v>471069.5</v>
       </c>
       <c r="L518" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="519" spans="1:12" x14ac:dyDescent="0.2">
@@ -21151,7 +21151,7 @@
         <v>260594</v>
       </c>
       <c r="L519" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="520" spans="1:12" x14ac:dyDescent="0.2">
@@ -21189,7 +21189,7 @@
         <v>268169</v>
       </c>
       <c r="L520" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="521" spans="1:12" x14ac:dyDescent="0.2">
@@ -21227,7 +21227,7 @@
         <v>320393</v>
       </c>
       <c r="L521" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="522" spans="1:12" x14ac:dyDescent="0.2">
@@ -21265,7 +21265,7 @@
         <v>353067</v>
       </c>
       <c r="L522" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="523" spans="1:12" x14ac:dyDescent="0.2">
@@ -21303,7 +21303,7 @@
         <v>353082.5</v>
       </c>
       <c r="L523" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="524" spans="1:12" x14ac:dyDescent="0.2">
@@ -21341,7 +21341,7 @@
         <v>349094</v>
       </c>
       <c r="L524" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="525" spans="1:12" x14ac:dyDescent="0.2">
@@ -21379,7 +21379,7 @@
         <v>350447</v>
       </c>
       <c r="L525" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="526" spans="1:12" x14ac:dyDescent="0.2">
@@ -21417,7 +21417,7 @@
         <v>362550</v>
       </c>
       <c r="L526" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="527" spans="1:12" x14ac:dyDescent="0.2">
@@ -21455,7 +21455,7 @@
         <v>375690.5</v>
       </c>
       <c r="L527" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="528" spans="1:12" x14ac:dyDescent="0.2">
@@ -21493,7 +21493,7 @@
         <v>390365.5</v>
       </c>
       <c r="L528" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="529" spans="1:12" x14ac:dyDescent="0.2">
@@ -21531,7 +21531,7 @@
         <v>458637.5</v>
       </c>
       <c r="L529" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="530" spans="1:12" x14ac:dyDescent="0.2">
@@ -21569,7 +21569,7 @@
         <v>248730.5</v>
       </c>
       <c r="L530" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="531" spans="1:12" x14ac:dyDescent="0.2">
@@ -21607,7 +21607,7 @@
         <v>247031.5</v>
       </c>
       <c r="L531" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="532" spans="1:12" x14ac:dyDescent="0.2">
@@ -21645,7 +21645,7 @@
         <v>246458.5</v>
       </c>
       <c r="L532" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="533" spans="1:12" x14ac:dyDescent="0.2">
@@ -21683,7 +21683,7 @@
         <v>248867.5</v>
       </c>
       <c r="L533" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="534" spans="1:12" x14ac:dyDescent="0.2">
@@ -21721,7 +21721,7 @@
         <v>259055.5</v>
       </c>
       <c r="L534" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="535" spans="1:12" x14ac:dyDescent="0.2">
@@ -21759,7 +21759,7 @@
         <v>262834.5</v>
       </c>
       <c r="L535" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="536" spans="1:12" x14ac:dyDescent="0.2">
@@ -21797,7 +21797,7 @@
         <v>270022</v>
       </c>
       <c r="L536" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="537" spans="1:12" x14ac:dyDescent="0.2">
@@ -21835,7 +21835,7 @@
         <v>273525</v>
       </c>
       <c r="L537" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="538" spans="1:12" x14ac:dyDescent="0.2">
@@ -21873,7 +21873,7 @@
         <v>286898</v>
       </c>
       <c r="L538" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="539" spans="1:12" x14ac:dyDescent="0.2">
@@ -21911,7 +21911,7 @@
         <v>296320</v>
       </c>
       <c r="L539" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="540" spans="1:12" x14ac:dyDescent="0.2">
@@ -21949,7 +21949,7 @@
         <v>331233</v>
       </c>
       <c r="L540" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="541" spans="1:12" x14ac:dyDescent="0.2">
@@ -21987,7 +21987,7 @@
         <v>209285</v>
       </c>
       <c r="L541" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="542" spans="1:12" x14ac:dyDescent="0.2">
@@ -22025,7 +22025,7 @@
         <v>212532</v>
       </c>
       <c r="L542" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="543" spans="1:12" x14ac:dyDescent="0.2">
@@ -22063,7 +22063,7 @@
         <v>224627.5</v>
       </c>
       <c r="L543" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="544" spans="1:12" x14ac:dyDescent="0.2">
@@ -22101,7 +22101,7 @@
         <v>236201</v>
       </c>
       <c r="L544" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="545" spans="1:12" x14ac:dyDescent="0.2">
@@ -22139,7 +22139,7 @@
         <v>255318</v>
       </c>
       <c r="L545" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="546" spans="1:12" x14ac:dyDescent="0.2">
@@ -22177,7 +22177,7 @@
         <v>274850</v>
       </c>
       <c r="L546" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="547" spans="1:12" x14ac:dyDescent="0.2">
@@ -22215,7 +22215,7 @@
         <v>292969.5</v>
       </c>
       <c r="L547" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="548" spans="1:12" x14ac:dyDescent="0.2">
@@ -22253,7 +22253,7 @@
         <v>309457</v>
       </c>
       <c r="L548" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="549" spans="1:12" x14ac:dyDescent="0.2">
@@ -22291,7 +22291,7 @@
         <v>317169.5</v>
       </c>
       <c r="L549" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="550" spans="1:12" x14ac:dyDescent="0.2">
@@ -22329,7 +22329,7 @@
         <v>326502.5</v>
       </c>
       <c r="L550" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="551" spans="1:12" x14ac:dyDescent="0.2">
@@ -22367,7 +22367,7 @@
         <v>388140.5</v>
       </c>
       <c r="L551" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="552" spans="1:12" x14ac:dyDescent="0.2">
@@ -22405,7 +22405,7 @@
         <v>276612</v>
       </c>
       <c r="L552" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="553" spans="1:12" x14ac:dyDescent="0.2">
@@ -22443,7 +22443,7 @@
         <v>288038</v>
       </c>
       <c r="L553" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="554" spans="1:12" x14ac:dyDescent="0.2">
@@ -22481,7 +22481,7 @@
         <v>318423</v>
       </c>
       <c r="L554" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="555" spans="1:12" x14ac:dyDescent="0.2">
@@ -22519,7 +22519,7 @@
         <v>338860</v>
       </c>
       <c r="L555" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="556" spans="1:12" x14ac:dyDescent="0.2">
@@ -22557,7 +22557,7 @@
         <v>373902</v>
       </c>
       <c r="L556" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="557" spans="1:12" x14ac:dyDescent="0.2">
@@ -22595,7 +22595,7 @@
         <v>412141</v>
       </c>
       <c r="L557" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="558" spans="1:12" x14ac:dyDescent="0.2">
@@ -22633,7 +22633,7 @@
         <v>439719</v>
       </c>
       <c r="L558" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="559" spans="1:12" x14ac:dyDescent="0.2">
@@ -22671,7 +22671,7 @@
         <v>472104</v>
       </c>
       <c r="L559" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="560" spans="1:12" x14ac:dyDescent="0.2">
@@ -22709,7 +22709,7 @@
         <v>484368.5</v>
       </c>
       <c r="L560" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="561" spans="1:12" x14ac:dyDescent="0.2">
@@ -22747,7 +22747,7 @@
         <v>498653</v>
       </c>
       <c r="L561" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="562" spans="1:12" x14ac:dyDescent="0.2">
@@ -22785,7 +22785,7 @@
         <v>584217</v>
       </c>
       <c r="L562" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="563" spans="1:12" x14ac:dyDescent="0.2">
@@ -22823,7 +22823,7 @@
         <v>418887.5</v>
       </c>
       <c r="L563" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="564" spans="1:12" x14ac:dyDescent="0.2">
@@ -22861,7 +22861,7 @@
         <v>431322.5</v>
       </c>
       <c r="L564" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="565" spans="1:12" x14ac:dyDescent="0.2">
@@ -22899,7 +22899,7 @@
         <v>475710</v>
       </c>
       <c r="L565" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="566" spans="1:12" x14ac:dyDescent="0.2">
@@ -22937,7 +22937,7 @@
         <v>507643.5</v>
       </c>
       <c r="L566" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="567" spans="1:12" x14ac:dyDescent="0.2">
@@ -22975,7 +22975,7 @@
         <v>525348</v>
       </c>
       <c r="L567" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="568" spans="1:12" x14ac:dyDescent="0.2">
@@ -23013,7 +23013,7 @@
         <v>555394</v>
       </c>
       <c r="L568" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="569" spans="1:12" x14ac:dyDescent="0.2">
@@ -23051,7 +23051,7 @@
         <v>585123.5</v>
       </c>
       <c r="L569" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="570" spans="1:12" x14ac:dyDescent="0.2">
@@ -23089,7 +23089,7 @@
         <v>606594.5</v>
       </c>
       <c r="L570" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="571" spans="1:12" x14ac:dyDescent="0.2">
@@ -23127,7 +23127,7 @@
         <v>628177</v>
       </c>
       <c r="L571" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="572" spans="1:12" x14ac:dyDescent="0.2">
@@ -23165,7 +23165,7 @@
         <v>643012.5</v>
       </c>
       <c r="L572" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="573" spans="1:12" x14ac:dyDescent="0.2">
@@ -23203,7 +23203,7 @@
         <v>763210</v>
       </c>
       <c r="L573" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="574" spans="1:12" x14ac:dyDescent="0.2">
@@ -23241,7 +23241,7 @@
         <v>369233.5</v>
       </c>
       <c r="L574" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="575" spans="1:12" x14ac:dyDescent="0.2">
@@ -23279,7 +23279,7 @@
         <v>366177</v>
       </c>
       <c r="L575" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="576" spans="1:12" x14ac:dyDescent="0.2">
@@ -23317,7 +23317,7 @@
         <v>402250</v>
       </c>
       <c r="L576" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="577" spans="1:12" x14ac:dyDescent="0.2">
@@ -23355,7 +23355,7 @@
         <v>428223</v>
       </c>
       <c r="L577" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="578" spans="1:12" x14ac:dyDescent="0.2">
@@ -23393,7 +23393,7 @@
         <v>454959.5</v>
       </c>
       <c r="L578" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="579" spans="1:12" x14ac:dyDescent="0.2">
@@ -23431,7 +23431,7 @@
         <v>465466</v>
       </c>
       <c r="L579" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="580" spans="1:12" x14ac:dyDescent="0.2">
@@ -23469,7 +23469,7 @@
         <v>468680</v>
       </c>
       <c r="L580" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="581" spans="1:12" x14ac:dyDescent="0.2">
@@ -23507,7 +23507,7 @@
         <v>482445.5</v>
       </c>
       <c r="L581" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="582" spans="1:12" x14ac:dyDescent="0.2">
@@ -23545,7 +23545,7 @@
         <v>479597.5</v>
       </c>
       <c r="L582" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="583" spans="1:12" x14ac:dyDescent="0.2">
@@ -23583,7 +23583,7 @@
         <v>501938.5</v>
       </c>
       <c r="L583" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="584" spans="1:12" x14ac:dyDescent="0.2">
@@ -23621,7 +23621,7 @@
         <v>543213</v>
       </c>
       <c r="L584" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="585" spans="1:12" x14ac:dyDescent="0.2">
@@ -23659,7 +23659,7 @@
         <v>59338</v>
       </c>
       <c r="L585" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="586" spans="1:12" x14ac:dyDescent="0.2">
@@ -23697,7 +23697,7 @@
         <v>45238</v>
       </c>
       <c r="L586" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="587" spans="1:12" x14ac:dyDescent="0.2">
@@ -23735,7 +23735,7 @@
         <v>43767</v>
       </c>
       <c r="L587" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="588" spans="1:12" x14ac:dyDescent="0.2">
@@ -23773,7 +23773,7 @@
         <v>42481</v>
       </c>
       <c r="L588" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="589" spans="1:12" x14ac:dyDescent="0.2">
@@ -23811,7 +23811,7 @@
         <v>41861</v>
       </c>
       <c r="L589" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="590" spans="1:12" x14ac:dyDescent="0.2">
@@ -23849,7 +23849,7 @@
         <v>41988</v>
       </c>
       <c r="L590" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="591" spans="1:12" x14ac:dyDescent="0.2">
@@ -23887,7 +23887,7 @@
         <v>44255</v>
       </c>
       <c r="L591" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="592" spans="1:12" x14ac:dyDescent="0.2">
@@ -23925,7 +23925,7 @@
         <v>50575.5</v>
       </c>
       <c r="L592" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="593" spans="1:12" x14ac:dyDescent="0.2">
@@ -23963,7 +23963,7 @@
         <v>54947</v>
       </c>
       <c r="L593" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="594" spans="1:12" x14ac:dyDescent="0.2">
@@ -24001,7 +24001,7 @@
         <v>59444.5</v>
       </c>
       <c r="L594" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="595" spans="1:12" x14ac:dyDescent="0.2">
@@ -24039,7 +24039,7 @@
         <v>79093.5</v>
       </c>
       <c r="L595" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="596" spans="1:12" x14ac:dyDescent="0.2">
@@ -24077,7 +24077,7 @@
         <v>591094.5</v>
       </c>
       <c r="L596" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="597" spans="1:12" x14ac:dyDescent="0.2">
@@ -24115,7 +24115,7 @@
         <v>588349.5</v>
       </c>
       <c r="L597" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="598" spans="1:12" x14ac:dyDescent="0.2">
@@ -24153,7 +24153,7 @@
         <v>695338</v>
       </c>
       <c r="L598" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="599" spans="1:12" x14ac:dyDescent="0.2">
@@ -24191,7 +24191,7 @@
         <v>729760</v>
       </c>
       <c r="L599" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="600" spans="1:12" x14ac:dyDescent="0.2">
@@ -24229,7 +24229,7 @@
         <v>753255</v>
       </c>
       <c r="L600" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="601" spans="1:12" x14ac:dyDescent="0.2">
@@ -24267,7 +24267,7 @@
         <v>789252.5</v>
       </c>
       <c r="L601" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="602" spans="1:12" x14ac:dyDescent="0.2">
@@ -24305,7 +24305,7 @@
         <v>824376</v>
       </c>
       <c r="L602" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="603" spans="1:12" x14ac:dyDescent="0.2">
@@ -24343,7 +24343,7 @@
         <v>862063</v>
       </c>
       <c r="L603" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="604" spans="1:12" x14ac:dyDescent="0.2">
@@ -24381,7 +24381,7 @@
         <v>865160</v>
       </c>
       <c r="L604" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="605" spans="1:12" x14ac:dyDescent="0.2">
@@ -24419,7 +24419,7 @@
         <v>890142.5</v>
       </c>
       <c r="L605" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="606" spans="1:12" x14ac:dyDescent="0.2">
@@ -24457,7 +24457,7 @@
         <v>1053712</v>
       </c>
       <c r="L606" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="607" spans="1:12" x14ac:dyDescent="0.2">
@@ -24495,7 +24495,7 @@
         <v>915803</v>
       </c>
       <c r="L607" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="608" spans="1:12" x14ac:dyDescent="0.2">
@@ -24533,7 +24533,7 @@
         <v>905896</v>
       </c>
       <c r="L608" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="609" spans="1:12" x14ac:dyDescent="0.2">
@@ -24571,7 +24571,7 @@
         <v>947748</v>
       </c>
       <c r="L609" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="610" spans="1:12" x14ac:dyDescent="0.2">
@@ -24609,7 +24609,7 @@
         <v>1038098</v>
       </c>
       <c r="L610" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="611" spans="1:12" x14ac:dyDescent="0.2">
@@ -24647,7 +24647,7 @@
         <v>1085695.5</v>
       </c>
       <c r="L611" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="612" spans="1:12" x14ac:dyDescent="0.2">
@@ -24685,7 +24685,7 @@
         <v>1108297.5</v>
       </c>
       <c r="L612" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="613" spans="1:12" x14ac:dyDescent="0.2">
@@ -24723,7 +24723,7 @@
         <v>1167522</v>
       </c>
       <c r="L613" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="614" spans="1:12" x14ac:dyDescent="0.2">
@@ -24761,7 +24761,7 @@
         <v>1207527.5</v>
       </c>
       <c r="L614" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="615" spans="1:12" x14ac:dyDescent="0.2">
@@ -24799,7 +24799,7 @@
         <v>1209379</v>
       </c>
       <c r="L615" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="616" spans="1:12" x14ac:dyDescent="0.2">
@@ -24837,7 +24837,7 @@
         <v>1187662</v>
       </c>
       <c r="L616" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="617" spans="1:12" x14ac:dyDescent="0.2">
@@ -24875,7 +24875,7 @@
         <v>1318695</v>
       </c>
       <c r="L617" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="618" spans="1:12" x14ac:dyDescent="0.2">
@@ -24913,7 +24913,7 @@
         <v>278479</v>
       </c>
       <c r="L618" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="619" spans="1:12" x14ac:dyDescent="0.2">
@@ -24951,7 +24951,7 @@
         <v>270560.5</v>
       </c>
       <c r="L619" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="620" spans="1:12" x14ac:dyDescent="0.2">
@@ -24989,7 +24989,7 @@
         <v>329694</v>
       </c>
       <c r="L620" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="621" spans="1:12" x14ac:dyDescent="0.2">
@@ -25027,7 +25027,7 @@
         <v>372859.5</v>
       </c>
       <c r="L621" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="622" spans="1:12" x14ac:dyDescent="0.2">
@@ -25065,7 +25065,7 @@
         <v>388731.5</v>
       </c>
       <c r="L622" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="623" spans="1:12" x14ac:dyDescent="0.2">
@@ -25103,7 +25103,7 @@
         <v>402069.5</v>
       </c>
       <c r="L623" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="624" spans="1:12" x14ac:dyDescent="0.2">
@@ -25141,7 +25141,7 @@
         <v>419135</v>
       </c>
       <c r="L624" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="625" spans="1:12" x14ac:dyDescent="0.2">
@@ -25179,7 +25179,7 @@
         <v>460169.5</v>
       </c>
       <c r="L625" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="626" spans="1:12" x14ac:dyDescent="0.2">
@@ -25217,7 +25217,7 @@
         <v>476895.5</v>
       </c>
       <c r="L626" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="627" spans="1:12" x14ac:dyDescent="0.2">
@@ -25255,7 +25255,7 @@
         <v>490568</v>
       </c>
       <c r="L627" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="628" spans="1:12" x14ac:dyDescent="0.2">
@@ -25293,7 +25293,7 @@
         <v>588211</v>
       </c>
       <c r="L628" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="629" spans="1:12" x14ac:dyDescent="0.2">
@@ -25331,7 +25331,7 @@
         <v>212502.5</v>
       </c>
       <c r="L629" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="630" spans="1:12" x14ac:dyDescent="0.2">
@@ -25369,7 +25369,7 @@
         <v>209670</v>
       </c>
       <c r="L630" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="631" spans="1:12" x14ac:dyDescent="0.2">
@@ -25407,7 +25407,7 @@
         <v>248437.5</v>
       </c>
       <c r="L631" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="632" spans="1:12" x14ac:dyDescent="0.2">
@@ -25445,7 +25445,7 @@
         <v>303826.5</v>
       </c>
       <c r="L632" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="633" spans="1:12" x14ac:dyDescent="0.2">
@@ -25483,7 +25483,7 @@
         <v>315153.5</v>
       </c>
       <c r="L633" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="634" spans="1:12" x14ac:dyDescent="0.2">
@@ -25521,7 +25521,7 @@
         <v>338718</v>
       </c>
       <c r="L634" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="635" spans="1:12" x14ac:dyDescent="0.2">
@@ -25559,7 +25559,7 @@
         <v>366390.5</v>
       </c>
       <c r="L635" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="636" spans="1:12" x14ac:dyDescent="0.2">
@@ -25597,7 +25597,7 @@
         <v>404768.5</v>
       </c>
       <c r="L636" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="637" spans="1:12" x14ac:dyDescent="0.2">
@@ -25635,7 +25635,7 @@
         <v>412483</v>
       </c>
       <c r="L637" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="638" spans="1:12" x14ac:dyDescent="0.2">
@@ -25673,7 +25673,7 @@
         <v>429919</v>
       </c>
       <c r="L638" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="639" spans="1:12" x14ac:dyDescent="0.2">
@@ -25711,7 +25711,7 @@
         <v>532217.5</v>
       </c>
       <c r="L639" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="640" spans="1:12" x14ac:dyDescent="0.2">
@@ -25749,7 +25749,7 @@
         <v>368387.5</v>
       </c>
       <c r="L640" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="641" spans="1:12" x14ac:dyDescent="0.2">
@@ -25787,7 +25787,7 @@
         <v>356503</v>
       </c>
       <c r="L641" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="642" spans="1:12" x14ac:dyDescent="0.2">
@@ -25825,7 +25825,7 @@
         <v>390664</v>
       </c>
       <c r="L642" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="643" spans="1:12" x14ac:dyDescent="0.2">
@@ -25863,7 +25863,7 @@
         <v>390006</v>
       </c>
       <c r="L643" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="644" spans="1:12" x14ac:dyDescent="0.2">
@@ -25901,7 +25901,7 @@
         <v>402497</v>
       </c>
       <c r="L644" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="645" spans="1:12" x14ac:dyDescent="0.2">
@@ -25939,7 +25939,7 @@
         <v>407566</v>
       </c>
       <c r="L645" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="646" spans="1:12" x14ac:dyDescent="0.2">
@@ -25977,7 +25977,7 @@
         <v>426010.5</v>
       </c>
       <c r="L646" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="647" spans="1:12" x14ac:dyDescent="0.2">
@@ -26015,7 +26015,7 @@
         <v>428398</v>
       </c>
       <c r="L647" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="648" spans="1:12" x14ac:dyDescent="0.2">
@@ -26053,7 +26053,7 @@
         <v>435846</v>
       </c>
       <c r="L648" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="649" spans="1:12" x14ac:dyDescent="0.2">
@@ -26091,7 +26091,7 @@
         <v>447469.5</v>
       </c>
       <c r="L649" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="650" spans="1:12" x14ac:dyDescent="0.2">
@@ -26129,7 +26129,7 @@
         <v>493788</v>
       </c>
       <c r="L650" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="651" spans="1:12" x14ac:dyDescent="0.2">
@@ -26167,7 +26167,7 @@
         <v>284011.5</v>
       </c>
       <c r="L651" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="652" spans="1:12" x14ac:dyDescent="0.2">
@@ -26205,7 +26205,7 @@
         <v>285954</v>
       </c>
       <c r="L652" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="653" spans="1:12" x14ac:dyDescent="0.2">
@@ -26243,7 +26243,7 @@
         <v>289741.5</v>
       </c>
       <c r="L653" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="654" spans="1:12" x14ac:dyDescent="0.2">
@@ -26281,7 +26281,7 @@
         <v>311617.5</v>
       </c>
       <c r="L654" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="655" spans="1:12" x14ac:dyDescent="0.2">
@@ -26319,7 +26319,7 @@
         <v>335593.5</v>
       </c>
       <c r="L655" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="656" spans="1:12" x14ac:dyDescent="0.2">
@@ -26357,7 +26357,7 @@
         <v>344220</v>
       </c>
       <c r="L656" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="657" spans="1:12" x14ac:dyDescent="0.2">
@@ -26395,7 +26395,7 @@
         <v>349015.5</v>
       </c>
       <c r="L657" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="658" spans="1:12" x14ac:dyDescent="0.2">
@@ -26433,7 +26433,7 @@
         <v>349858.5</v>
       </c>
       <c r="L658" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="659" spans="1:12" x14ac:dyDescent="0.2">
@@ -26471,7 +26471,7 @@
         <v>355419</v>
       </c>
       <c r="L659" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="660" spans="1:12" x14ac:dyDescent="0.2">
@@ -26509,7 +26509,7 @@
         <v>376309.5</v>
       </c>
       <c r="L660" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="661" spans="1:12" x14ac:dyDescent="0.2">
@@ -26547,7 +26547,7 @@
         <v>401970</v>
       </c>
       <c r="L661" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="662" spans="1:12" x14ac:dyDescent="0.2">
@@ -26585,7 +26585,7 @@
         <v>354558.5</v>
       </c>
       <c r="L662" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="663" spans="1:12" x14ac:dyDescent="0.2">
@@ -26623,7 +26623,7 @@
         <v>345740.5</v>
       </c>
       <c r="L663" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="664" spans="1:12" x14ac:dyDescent="0.2">
@@ -26661,7 +26661,7 @@
         <v>413118</v>
       </c>
       <c r="L664" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="665" spans="1:12" x14ac:dyDescent="0.2">
@@ -26699,7 +26699,7 @@
         <v>479574.5</v>
       </c>
       <c r="L665" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="666" spans="1:12" x14ac:dyDescent="0.2">
@@ -26737,7 +26737,7 @@
         <v>490961</v>
       </c>
       <c r="L666" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="667" spans="1:12" x14ac:dyDescent="0.2">
@@ -26775,7 +26775,7 @@
         <v>504579.5</v>
       </c>
       <c r="L667" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="668" spans="1:12" x14ac:dyDescent="0.2">
@@ -26813,7 +26813,7 @@
         <v>529992</v>
       </c>
       <c r="L668" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="669" spans="1:12" x14ac:dyDescent="0.2">
@@ -26851,7 +26851,7 @@
         <v>565459</v>
       </c>
       <c r="L669" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="670" spans="1:12" x14ac:dyDescent="0.2">
@@ -26889,7 +26889,7 @@
         <v>569986.5</v>
       </c>
       <c r="L670" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="671" spans="1:12" x14ac:dyDescent="0.2">
@@ -26927,7 +26927,7 @@
         <v>585441.5</v>
       </c>
       <c r="L671" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="672" spans="1:12" x14ac:dyDescent="0.2">
@@ -26965,7 +26965,7 @@
         <v>713664</v>
       </c>
       <c r="L672" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="673" spans="1:12" x14ac:dyDescent="0.2">
@@ -27000,7 +27000,7 @@
         <v>451539.5</v>
       </c>
       <c r="L673" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="674" spans="1:12" x14ac:dyDescent="0.2">
@@ -27038,7 +27038,7 @@
         <v>452857.5</v>
       </c>
       <c r="L674" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="675" spans="1:12" x14ac:dyDescent="0.2">
@@ -27076,7 +27076,7 @@
         <v>534799.5</v>
       </c>
       <c r="L675" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="676" spans="1:12" x14ac:dyDescent="0.2">
@@ -27114,7 +27114,7 @@
         <v>570241</v>
       </c>
       <c r="L676" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="677" spans="1:12" x14ac:dyDescent="0.2">
@@ -27152,7 +27152,7 @@
         <v>590642.5</v>
       </c>
       <c r="L677" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="678" spans="1:12" x14ac:dyDescent="0.2">
@@ -27190,7 +27190,7 @@
         <v>631278</v>
       </c>
       <c r="L678" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="679" spans="1:12" x14ac:dyDescent="0.2">
@@ -27228,7 +27228,7 @@
         <v>664862</v>
       </c>
       <c r="L679" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="680" spans="1:12" x14ac:dyDescent="0.2">
@@ -27266,7 +27266,7 @@
         <v>711115</v>
       </c>
       <c r="L680" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="681" spans="1:12" x14ac:dyDescent="0.2">
@@ -27304,7 +27304,7 @@
         <v>717084.5</v>
       </c>
       <c r="L681" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="682" spans="1:12" x14ac:dyDescent="0.2">
@@ -27342,7 +27342,7 @@
         <v>741568</v>
       </c>
       <c r="L682" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="683" spans="1:12" x14ac:dyDescent="0.2">
@@ -27380,7 +27380,7 @@
         <v>876335</v>
       </c>
       <c r="L683" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="684" spans="1:12" x14ac:dyDescent="0.2">
@@ -27418,7 +27418,7 @@
         <v>253843</v>
       </c>
       <c r="L684" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="685" spans="1:12" x14ac:dyDescent="0.2">
@@ -27456,7 +27456,7 @@
         <v>260192</v>
       </c>
       <c r="L685" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="686" spans="1:12" x14ac:dyDescent="0.2">
@@ -27494,7 +27494,7 @@
         <v>302339</v>
       </c>
       <c r="L686" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="687" spans="1:12" x14ac:dyDescent="0.2">
@@ -27532,7 +27532,7 @@
         <v>332218.5</v>
       </c>
       <c r="L687" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="688" spans="1:12" x14ac:dyDescent="0.2">
@@ -27570,7 +27570,7 @@
         <v>338149.5</v>
       </c>
       <c r="L688" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="689" spans="1:12" x14ac:dyDescent="0.2">
@@ -27608,7 +27608,7 @@
         <v>356819.5</v>
       </c>
       <c r="L689" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="690" spans="1:12" x14ac:dyDescent="0.2">
@@ -27646,7 +27646,7 @@
         <v>374457</v>
       </c>
       <c r="L690" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="691" spans="1:12" x14ac:dyDescent="0.2">
@@ -27684,7 +27684,7 @@
         <v>392941</v>
       </c>
       <c r="L691" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="692" spans="1:12" x14ac:dyDescent="0.2">
@@ -27722,7 +27722,7 @@
         <v>405933</v>
       </c>
       <c r="L692" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="693" spans="1:12" x14ac:dyDescent="0.2">
@@ -27760,7 +27760,7 @@
         <v>417766</v>
       </c>
       <c r="L693" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="694" spans="1:12" x14ac:dyDescent="0.2">
@@ -27798,7 +27798,7 @@
         <v>470097.5</v>
       </c>
       <c r="L694" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="695" spans="1:12" x14ac:dyDescent="0.2">
@@ -27836,7 +27836,7 @@
         <v>1207561.5</v>
       </c>
       <c r="L695" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="696" spans="1:12" x14ac:dyDescent="0.2">
@@ -27874,7 +27874,7 @@
         <v>1195947.5</v>
       </c>
       <c r="L696" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="697" spans="1:12" x14ac:dyDescent="0.2">
@@ -27912,7 +27912,7 @@
         <v>1426892.5</v>
       </c>
       <c r="L697" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="698" spans="1:12" x14ac:dyDescent="0.2">
@@ -27950,7 +27950,7 @@
         <v>1500070.5</v>
       </c>
       <c r="L698" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="699" spans="1:12" x14ac:dyDescent="0.2">
@@ -27988,7 +27988,7 @@
         <v>1549914.5</v>
       </c>
       <c r="L699" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="700" spans="1:12" x14ac:dyDescent="0.2">
@@ -28026,7 +28026,7 @@
         <v>1593618.5</v>
       </c>
       <c r="L700" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="701" spans="1:12" x14ac:dyDescent="0.2">
@@ -28064,7 +28064,7 @@
         <v>1627035.5</v>
       </c>
       <c r="L701" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="702" spans="1:12" x14ac:dyDescent="0.2">
@@ -28102,7 +28102,7 @@
         <v>1681892</v>
       </c>
       <c r="L702" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="703" spans="1:12" x14ac:dyDescent="0.2">
@@ -28140,7 +28140,7 @@
         <v>1650486.5</v>
       </c>
       <c r="L703" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="704" spans="1:12" x14ac:dyDescent="0.2">
@@ -28178,7 +28178,7 @@
         <v>1646768.5</v>
       </c>
       <c r="L704" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="705" spans="1:12" x14ac:dyDescent="0.2">
@@ -28216,7 +28216,7 @@
         <v>1864203</v>
       </c>
       <c r="L705" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="706" spans="1:12" x14ac:dyDescent="0.2">
@@ -28254,7 +28254,7 @@
         <v>220452.5</v>
       </c>
       <c r="L706" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="707" spans="1:12" x14ac:dyDescent="0.2">
@@ -28292,7 +28292,7 @@
         <v>214101</v>
       </c>
       <c r="L707" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="708" spans="1:12" x14ac:dyDescent="0.2">
@@ -28330,7 +28330,7 @@
         <v>221346.5</v>
       </c>
       <c r="L708" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="709" spans="1:12" x14ac:dyDescent="0.2">
@@ -28368,7 +28368,7 @@
         <v>230416</v>
       </c>
       <c r="L709" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="710" spans="1:12" x14ac:dyDescent="0.2">
@@ -28406,7 +28406,7 @@
         <v>239287.5</v>
       </c>
       <c r="L710" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="711" spans="1:12" x14ac:dyDescent="0.2">
@@ -28444,7 +28444,7 @@
         <v>247001</v>
       </c>
       <c r="L711" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="712" spans="1:12" x14ac:dyDescent="0.2">
@@ -28482,7 +28482,7 @@
         <v>270534</v>
       </c>
       <c r="L712" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="713" spans="1:12" x14ac:dyDescent="0.2">
@@ -28520,7 +28520,7 @@
         <v>283905</v>
       </c>
       <c r="L713" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="714" spans="1:12" x14ac:dyDescent="0.2">
@@ -28558,7 +28558,7 @@
         <v>298937</v>
       </c>
       <c r="L714" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="715" spans="1:12" x14ac:dyDescent="0.2">
@@ -28596,7 +28596,7 @@
         <v>312441</v>
       </c>
       <c r="L715" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="716" spans="1:12" x14ac:dyDescent="0.2">
@@ -28634,7 +28634,7 @@
         <v>368561.5</v>
       </c>
       <c r="L716" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="717" spans="1:12" x14ac:dyDescent="0.2">
@@ -28672,7 +28672,7 @@
         <v>248158</v>
       </c>
       <c r="L717" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="718" spans="1:12" x14ac:dyDescent="0.2">
@@ -28710,7 +28710,7 @@
         <v>223549</v>
       </c>
       <c r="L718" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="719" spans="1:12" x14ac:dyDescent="0.2">
@@ -28748,7 +28748,7 @@
         <v>209564</v>
       </c>
       <c r="L719" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="720" spans="1:12" x14ac:dyDescent="0.2">
@@ -28786,7 +28786,7 @@
         <v>210877.5</v>
       </c>
       <c r="L720" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="721" spans="1:12" x14ac:dyDescent="0.2">
@@ -28824,7 +28824,7 @@
         <v>215164</v>
       </c>
       <c r="L721" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="722" spans="1:12" x14ac:dyDescent="0.2">
@@ -28862,7 +28862,7 @@
         <v>229176.5</v>
       </c>
       <c r="L722" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="723" spans="1:12" x14ac:dyDescent="0.2">
@@ -28900,7 +28900,7 @@
         <v>253065.5</v>
       </c>
       <c r="L723" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="724" spans="1:12" x14ac:dyDescent="0.2">
@@ -28938,7 +28938,7 @@
         <v>283732</v>
       </c>
       <c r="L724" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="725" spans="1:12" x14ac:dyDescent="0.2">
@@ -28976,7 +28976,7 @@
         <v>317369.5</v>
       </c>
       <c r="L725" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="726" spans="1:12" x14ac:dyDescent="0.2">
@@ -29014,7 +29014,7 @@
         <v>359939</v>
       </c>
       <c r="L726" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="727" spans="1:12" x14ac:dyDescent="0.2">
@@ -29052,7 +29052,7 @@
         <v>423252.5</v>
       </c>
       <c r="L727" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="728" spans="1:12" x14ac:dyDescent="0.2">
@@ -29090,7 +29090,7 @@
         <v>257767.5</v>
       </c>
       <c r="L728" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="729" spans="1:12" x14ac:dyDescent="0.2">
@@ -29128,7 +29128,7 @@
         <v>261130</v>
       </c>
       <c r="L729" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="730" spans="1:12" x14ac:dyDescent="0.2">
@@ -29166,7 +29166,7 @@
         <v>283342</v>
       </c>
       <c r="L730" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="731" spans="1:12" x14ac:dyDescent="0.2">
@@ -29204,7 +29204,7 @@
         <v>307506</v>
       </c>
       <c r="L731" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="732" spans="1:12" x14ac:dyDescent="0.2">
@@ -29242,7 +29242,7 @@
         <v>319648</v>
       </c>
       <c r="L732" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="733" spans="1:12" x14ac:dyDescent="0.2">
@@ -29280,7 +29280,7 @@
         <v>323172</v>
       </c>
       <c r="L733" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="734" spans="1:12" x14ac:dyDescent="0.2">
@@ -29318,7 +29318,7 @@
         <v>356447</v>
       </c>
       <c r="L734" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="735" spans="1:12" x14ac:dyDescent="0.2">
@@ -29356,7 +29356,7 @@
         <v>373312.5</v>
       </c>
       <c r="L735" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="736" spans="1:12" x14ac:dyDescent="0.2">
@@ -29394,7 +29394,7 @@
         <v>380180.5</v>
       </c>
       <c r="L736" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="737" spans="1:12" x14ac:dyDescent="0.2">
@@ -29432,7 +29432,7 @@
         <v>393986.5</v>
       </c>
       <c r="L737" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="738" spans="1:12" x14ac:dyDescent="0.2">
@@ -29470,7 +29470,7 @@
         <v>431134.5</v>
       </c>
       <c r="L738" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="739" spans="1:12" x14ac:dyDescent="0.2">
@@ -29508,7 +29508,7 @@
         <v>236187</v>
       </c>
       <c r="L739" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="740" spans="1:12" x14ac:dyDescent="0.2">
@@ -29546,7 +29546,7 @@
         <v>245778</v>
       </c>
       <c r="L740" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="741" spans="1:12" x14ac:dyDescent="0.2">
@@ -29584,7 +29584,7 @@
         <v>262975.5</v>
       </c>
       <c r="L741" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="742" spans="1:12" x14ac:dyDescent="0.2">
@@ -29622,7 +29622,7 @@
         <v>281563.5</v>
       </c>
       <c r="L742" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="743" spans="1:12" x14ac:dyDescent="0.2">
@@ -29660,7 +29660,7 @@
         <v>299167</v>
       </c>
       <c r="L743" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="744" spans="1:12" x14ac:dyDescent="0.2">
@@ -29698,7 +29698,7 @@
         <v>314081</v>
       </c>
       <c r="L744" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="745" spans="1:12" x14ac:dyDescent="0.2">
@@ -29736,7 +29736,7 @@
         <v>330323</v>
       </c>
       <c r="L745" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="746" spans="1:12" x14ac:dyDescent="0.2">
@@ -29774,7 +29774,7 @@
         <v>352999</v>
       </c>
       <c r="L746" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="747" spans="1:12" x14ac:dyDescent="0.2">
@@ -29812,7 +29812,7 @@
         <v>368068.5</v>
       </c>
       <c r="L747" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="748" spans="1:12" x14ac:dyDescent="0.2">
@@ -29850,7 +29850,7 @@
         <v>383840.5</v>
       </c>
       <c r="L748" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="749" spans="1:12" x14ac:dyDescent="0.2">
@@ -29888,7 +29888,7 @@
         <v>447217.5</v>
       </c>
       <c r="L749" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="750" spans="1:12" x14ac:dyDescent="0.2">
@@ -29926,7 +29926,7 @@
         <v>337829.5</v>
       </c>
       <c r="L750" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="751" spans="1:12" x14ac:dyDescent="0.2">
@@ -29964,7 +29964,7 @@
         <v>326598.5</v>
       </c>
       <c r="L751" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="752" spans="1:12" x14ac:dyDescent="0.2">
@@ -30002,7 +30002,7 @@
         <v>338292</v>
       </c>
       <c r="L752" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="753" spans="1:12" x14ac:dyDescent="0.2">
@@ -30040,7 +30040,7 @@
         <v>345261.5</v>
       </c>
       <c r="L753" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="754" spans="1:12" x14ac:dyDescent="0.2">
@@ -30078,7 +30078,7 @@
         <v>350052</v>
       </c>
       <c r="L754" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="755" spans="1:12" x14ac:dyDescent="0.2">
@@ -30116,7 +30116,7 @@
         <v>354878</v>
       </c>
       <c r="L755" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="756" spans="1:12" x14ac:dyDescent="0.2">
@@ -30154,7 +30154,7 @@
         <v>366898.5</v>
       </c>
       <c r="L756" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="757" spans="1:12" x14ac:dyDescent="0.2">
@@ -30192,7 +30192,7 @@
         <v>378510.5</v>
       </c>
       <c r="L757" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="758" spans="1:12" x14ac:dyDescent="0.2">
@@ -30230,7 +30230,7 @@
         <v>386854.5</v>
       </c>
       <c r="L758" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="759" spans="1:12" x14ac:dyDescent="0.2">
@@ -30268,7 +30268,7 @@
         <v>400283.5</v>
       </c>
       <c r="L759" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="760" spans="1:12" x14ac:dyDescent="0.2">
@@ -30306,7 +30306,7 @@
         <v>450470</v>
       </c>
       <c r="L760" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="761" spans="1:12" x14ac:dyDescent="0.2">
@@ -30344,7 +30344,7 @@
         <v>212962.5</v>
       </c>
       <c r="L761" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="762" spans="1:12" x14ac:dyDescent="0.2">
@@ -30382,7 +30382,7 @@
         <v>210341</v>
       </c>
       <c r="L762" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="763" spans="1:12" x14ac:dyDescent="0.2">
@@ -30420,7 +30420,7 @@
         <v>203910.5</v>
       </c>
       <c r="L763" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="764" spans="1:12" x14ac:dyDescent="0.2">
@@ -30458,7 +30458,7 @@
         <v>208609.5</v>
       </c>
       <c r="L764" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="765" spans="1:12" x14ac:dyDescent="0.2">
@@ -30496,7 +30496,7 @@
         <v>228471</v>
       </c>
       <c r="L765" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="766" spans="1:12" x14ac:dyDescent="0.2">
@@ -30534,7 +30534,7 @@
         <v>231598</v>
       </c>
       <c r="L766" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="767" spans="1:12" x14ac:dyDescent="0.2">
@@ -30572,7 +30572,7 @@
         <v>241638</v>
       </c>
       <c r="L767" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="768" spans="1:12" x14ac:dyDescent="0.2">
@@ -30610,7 +30610,7 @@
         <v>267545</v>
       </c>
       <c r="L768" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="769" spans="1:12" x14ac:dyDescent="0.2">
@@ -30648,7 +30648,7 @@
         <v>280035.5</v>
       </c>
       <c r="L769" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="770" spans="1:12" x14ac:dyDescent="0.2">
@@ -30686,7 +30686,7 @@
         <v>288890.5</v>
       </c>
       <c r="L770" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="771" spans="1:12" x14ac:dyDescent="0.2">
@@ -30724,7 +30724,7 @@
         <v>327573</v>
       </c>
       <c r="L771" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="772" spans="1:12" x14ac:dyDescent="0.2">
@@ -30762,7 +30762,7 @@
         <v>250233.5</v>
       </c>
       <c r="L772" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="773" spans="1:12" x14ac:dyDescent="0.2">
@@ -30800,7 +30800,7 @@
         <v>247062</v>
       </c>
       <c r="L773" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="774" spans="1:12" x14ac:dyDescent="0.2">
@@ -30838,7 +30838,7 @@
         <v>270988</v>
       </c>
       <c r="L774" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="775" spans="1:12" x14ac:dyDescent="0.2">
@@ -30876,7 +30876,7 @@
         <v>272691.5</v>
       </c>
       <c r="L775" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="776" spans="1:12" x14ac:dyDescent="0.2">
@@ -30914,7 +30914,7 @@
         <v>287110</v>
       </c>
       <c r="L776" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="777" spans="1:12" x14ac:dyDescent="0.2">
@@ -30952,7 +30952,7 @@
         <v>294524.5</v>
       </c>
       <c r="L777" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="778" spans="1:12" x14ac:dyDescent="0.2">
@@ -30990,7 +30990,7 @@
         <v>314395</v>
       </c>
       <c r="L778" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="779" spans="1:12" x14ac:dyDescent="0.2">
@@ -31028,7 +31028,7 @@
         <v>333154.5</v>
       </c>
       <c r="L779" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="780" spans="1:12" x14ac:dyDescent="0.2">
@@ -31066,7 +31066,7 @@
         <v>337747.5</v>
       </c>
       <c r="L780" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="781" spans="1:12" x14ac:dyDescent="0.2">
@@ -31104,7 +31104,7 @@
         <v>346885</v>
       </c>
       <c r="L781" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="782" spans="1:12" x14ac:dyDescent="0.2">
@@ -31142,7 +31142,7 @@
         <v>396055.5</v>
       </c>
       <c r="L782" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="783" spans="1:12" x14ac:dyDescent="0.2">
@@ -31180,7 +31180,7 @@
         <v>343567.5</v>
       </c>
       <c r="L783" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="784" spans="1:12" x14ac:dyDescent="0.2">
@@ -31218,7 +31218,7 @@
         <v>354701.5</v>
       </c>
       <c r="L784" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="785" spans="1:12" x14ac:dyDescent="0.2">
@@ -31256,7 +31256,7 @@
         <v>374282</v>
       </c>
       <c r="L785" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="786" spans="1:12" x14ac:dyDescent="0.2">
@@ -31294,7 +31294,7 @@
         <v>402705</v>
       </c>
       <c r="L786" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="787" spans="1:12" x14ac:dyDescent="0.2">
@@ -31332,7 +31332,7 @@
         <v>439890</v>
       </c>
       <c r="L787" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="788" spans="1:12" x14ac:dyDescent="0.2">
@@ -31370,7 +31370,7 @@
         <v>465433.5</v>
       </c>
       <c r="L788" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="789" spans="1:12" x14ac:dyDescent="0.2">
@@ -31408,7 +31408,7 @@
         <v>488487.5</v>
       </c>
       <c r="L789" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="790" spans="1:12" x14ac:dyDescent="0.2">
@@ -31446,7 +31446,7 @@
         <v>494717</v>
       </c>
       <c r="L790" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="791" spans="1:12" x14ac:dyDescent="0.2">
@@ -31484,7 +31484,7 @@
         <v>488555</v>
       </c>
       <c r="L791" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="792" spans="1:12" x14ac:dyDescent="0.2">
@@ -31522,7 +31522,7 @@
         <v>487476.5</v>
       </c>
       <c r="L792" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="793" spans="1:12" x14ac:dyDescent="0.2">
@@ -31560,7 +31560,7 @@
         <v>587071</v>
       </c>
       <c r="L793" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="794" spans="1:12" x14ac:dyDescent="0.2">
@@ -31598,7 +31598,7 @@
         <v>442855</v>
       </c>
       <c r="L794" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="795" spans="1:12" x14ac:dyDescent="0.2">
@@ -31636,7 +31636,7 @@
         <v>455300.5</v>
       </c>
       <c r="L795" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="796" spans="1:12" x14ac:dyDescent="0.2">
@@ -31674,7 +31674,7 @@
         <v>467488.5</v>
       </c>
       <c r="L796" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="797" spans="1:12" x14ac:dyDescent="0.2">
@@ -31712,7 +31712,7 @@
         <v>475222.5</v>
       </c>
       <c r="L797" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="798" spans="1:12" x14ac:dyDescent="0.2">
@@ -31750,7 +31750,7 @@
         <v>492796.5</v>
       </c>
       <c r="L798" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="799" spans="1:12" x14ac:dyDescent="0.2">
@@ -31788,7 +31788,7 @@
         <v>494621</v>
       </c>
       <c r="L799" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="800" spans="1:12" x14ac:dyDescent="0.2">
@@ -31826,7 +31826,7 @@
         <v>488539.5</v>
       </c>
       <c r="L800" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="801" spans="1:12" x14ac:dyDescent="0.2">
@@ -31864,7 +31864,7 @@
         <v>490931</v>
       </c>
       <c r="L801" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="802" spans="1:12" x14ac:dyDescent="0.2">
@@ -31902,7 +31902,7 @@
         <v>519519.5</v>
       </c>
       <c r="L802" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="803" spans="1:12" x14ac:dyDescent="0.2">
@@ -31940,7 +31940,7 @@
         <v>505119.5</v>
       </c>
       <c r="L803" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="804" spans="1:12" x14ac:dyDescent="0.2">
@@ -31978,7 +31978,7 @@
         <v>523015</v>
       </c>
       <c r="L804" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="805" spans="1:12" x14ac:dyDescent="0.2">
@@ -32016,7 +32016,7 @@
         <v>327673</v>
       </c>
       <c r="L805" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="806" spans="1:12" x14ac:dyDescent="0.2">
@@ -32054,7 +32054,7 @@
         <v>314748</v>
       </c>
       <c r="L806" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="807" spans="1:12" x14ac:dyDescent="0.2">
@@ -32092,7 +32092,7 @@
         <v>331657.5</v>
       </c>
       <c r="L807" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="808" spans="1:12" x14ac:dyDescent="0.2">
@@ -32130,7 +32130,7 @@
         <v>349121.5</v>
       </c>
       <c r="L808" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="809" spans="1:12" x14ac:dyDescent="0.2">
@@ -32168,7 +32168,7 @@
         <v>355666.5</v>
       </c>
       <c r="L809" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="810" spans="1:12" x14ac:dyDescent="0.2">
@@ -32206,7 +32206,7 @@
         <v>370972.5</v>
       </c>
       <c r="L810" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="811" spans="1:12" x14ac:dyDescent="0.2">
@@ -32244,7 +32244,7 @@
         <v>386523.5</v>
       </c>
       <c r="L811" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="812" spans="1:12" x14ac:dyDescent="0.2">
@@ -32282,7 +32282,7 @@
         <v>406205</v>
       </c>
       <c r="L812" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="813" spans="1:12" x14ac:dyDescent="0.2">
@@ -32320,7 +32320,7 @@
         <v>428602</v>
       </c>
       <c r="L813" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="814" spans="1:12" x14ac:dyDescent="0.2">
@@ -32358,7 +32358,7 @@
         <v>442067</v>
       </c>
       <c r="L814" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="815" spans="1:12" x14ac:dyDescent="0.2">
@@ -32396,7 +32396,7 @@
         <v>520258</v>
       </c>
       <c r="L815" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="816" spans="1:12" x14ac:dyDescent="0.2">
@@ -32434,7 +32434,7 @@
         <v>299933</v>
       </c>
       <c r="L816" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="817" spans="1:12" x14ac:dyDescent="0.2">
@@ -32472,7 +32472,7 @@
         <v>297587.5</v>
       </c>
       <c r="L817" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="818" spans="1:12" x14ac:dyDescent="0.2">
@@ -32510,7 +32510,7 @@
         <v>314675</v>
       </c>
       <c r="L818" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="819" spans="1:12" x14ac:dyDescent="0.2">
@@ -32548,7 +32548,7 @@
         <v>345716</v>
       </c>
       <c r="L819" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="820" spans="1:12" x14ac:dyDescent="0.2">
@@ -32586,7 +32586,7 @@
         <v>373238</v>
       </c>
       <c r="L820" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="821" spans="1:12" x14ac:dyDescent="0.2">
@@ -32624,7 +32624,7 @@
         <v>424509.5</v>
       </c>
       <c r="L821" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="822" spans="1:12" x14ac:dyDescent="0.2">
@@ -32662,7 +32662,7 @@
         <v>478914</v>
       </c>
       <c r="L822" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="823" spans="1:12" x14ac:dyDescent="0.2">
@@ -32700,7 +32700,7 @@
         <v>540612.5</v>
       </c>
       <c r="L823" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="824" spans="1:12" x14ac:dyDescent="0.2">
@@ -32738,7 +32738,7 @@
         <v>576188.5</v>
       </c>
       <c r="L824" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="825" spans="1:12" x14ac:dyDescent="0.2">
@@ -32776,7 +32776,7 @@
         <v>603894</v>
       </c>
       <c r="L825" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
     <row r="826" spans="1:12" x14ac:dyDescent="0.2">
@@ -32814,7 +32814,7 @@
         <v>656787</v>
       </c>
       <c r="L826" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
     </row>
   </sheetData>
